--- a/tagsets/semantic_slots.xlsx
+++ b/tagsets/semantic_slots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Диалог 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CODE\Projects\work\SEMarkup-2023\tagsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956B4522-6BF2-4CB9-87F6-EED540377870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011F58D3-8B5B-4633-81EA-D39EEF813438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5F78DBA-B1BC-4EC1-A1D6-F4CD8EACD287}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{C5F78DBA-B1BC-4EC1-A1D6-F4CD8EACD287}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="943">
   <si>
     <t>Parenthetical</t>
   </si>
@@ -2868,642 +2868,6 @@
   </si>
   <si>
     <t>Глубинная позиция в разметке</t>
-  </si>
-  <si>
-    <t>ГП в СИ</t>
-  </si>
-  <si>
-    <t>AdditiveDegree</t>
-  </si>
-  <si>
-    <t>AdditiveQuantity</t>
-  </si>
-  <si>
-    <t>AdditionalParticipant_Controlled</t>
-  </si>
-  <si>
-    <t>But_Addition</t>
-  </si>
-  <si>
-    <t>Addressee_ForMainClauseOnly</t>
-  </si>
-  <si>
-    <t>Addressee_InTheNameOf</t>
-  </si>
-  <si>
-    <t>Agent_Device</t>
-  </si>
-  <si>
-    <t>Agent_Route</t>
-  </si>
-  <si>
-    <t>Cause_Actant</t>
-  </si>
-  <si>
-    <t>Cause_From</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_CapacityOfPrintedMatter</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Dimensions</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_GroupDimension</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Electricity</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Energy</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Force</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Frequency</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Photosensitivity</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Power</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Pressure</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Price</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Speed</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Temperature</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_UnitOfSpeed</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Weight</t>
-  </si>
-  <si>
-    <t>Ch_Reference_Context</t>
-  </si>
-  <si>
-    <t>Ch_Reference_Demonstrative</t>
-  </si>
-  <si>
-    <t>Ch_Reference_IndefiniteAndQuantification</t>
-  </si>
-  <si>
-    <t>FloatingQuantifier_Controlled</t>
-  </si>
-  <si>
-    <t>Ch_Ability</t>
-  </si>
-  <si>
-    <t>Ch_AbilityOfObject</t>
-  </si>
-  <si>
-    <t>Ch_Appearance</t>
-  </si>
-  <si>
-    <t>Ch_AvailabilityForUse</t>
-  </si>
-  <si>
-    <t>Ch_BiologicalProperties</t>
-  </si>
-  <si>
-    <t>Ch_BodyStructure</t>
-  </si>
-  <si>
-    <t>Ch_ByEducationAndManners</t>
-  </si>
-  <si>
-    <t>Ch_ByLanguage</t>
-  </si>
-  <si>
-    <t>Ch_ByPostAndJob</t>
-  </si>
-  <si>
-    <t>Ch_ByResidence</t>
-  </si>
-  <si>
-    <t>Ch_Completeness</t>
-  </si>
-  <si>
-    <t>Ch_Composition</t>
-  </si>
-  <si>
-    <t>Ch_ConcreteAbstract</t>
-  </si>
-  <si>
-    <t>Ch_ConditionInEnvironment</t>
-  </si>
-  <si>
-    <t>Ch_Emotion</t>
-  </si>
-  <si>
-    <t>Ch_Evaluation</t>
-  </si>
-  <si>
-    <t>Ch_EvaluationOfHumanTemperAndActivity</t>
-  </si>
-  <si>
-    <t>Ch_Exactness</t>
-  </si>
-  <si>
-    <t>Ch_Fullness</t>
-  </si>
-  <si>
-    <t>Ch_Functionality</t>
-  </si>
-  <si>
-    <t>Ch_GeneralCharacteristic</t>
-  </si>
-  <si>
-    <t>Ch_Genuineness</t>
-  </si>
-  <si>
-    <t>Ch_Information</t>
-  </si>
-  <si>
-    <t>Ch_Internet</t>
-  </si>
-  <si>
-    <t>Ch_Kind_StructureOrganization</t>
-  </si>
-  <si>
-    <t>Ch_LinguisticCategories</t>
-  </si>
-  <si>
-    <t>Ch_Location</t>
-  </si>
-  <si>
-    <t>Ch_MathCategories</t>
-  </si>
-  <si>
-    <t>Ch_NotabilityDistribution</t>
-  </si>
-  <si>
-    <t>Ch_OrderInGeneral</t>
-  </si>
-  <si>
-    <t>Ch_Perceptibility</t>
-  </si>
-  <si>
-    <t>Ch_PerceptionAndViews</t>
-  </si>
-  <si>
-    <t>Ch_Phase</t>
-  </si>
-  <si>
-    <t>Ch_Phys_Covering</t>
-  </si>
-  <si>
-    <t>Ch_Phys_Form</t>
-  </si>
-  <si>
-    <t>Ch_Phys_InnerStructure</t>
-  </si>
-  <si>
-    <t>Ch_Phys_SurfaceEdge</t>
-  </si>
-  <si>
-    <t>Ch_Phys_VisualCharacteristic</t>
-  </si>
-  <si>
-    <t>Ch_PhysicalPsychicCondition</t>
-  </si>
-  <si>
-    <t>Ch_PhysicalStateOfObject</t>
-  </si>
-  <si>
-    <t>Ch_PhysicoChemical</t>
-  </si>
-  <si>
-    <t>Ch_PositionInHierarchy</t>
-  </si>
-  <si>
-    <t>Ch_PossibilitivityInPerceptionAndRealization</t>
-  </si>
-  <si>
-    <t>Ch_ProcessingTechnique</t>
-  </si>
-  <si>
-    <t>Ch_ProducedInfluence</t>
-  </si>
-  <si>
-    <t>Ch_Relation</t>
-  </si>
-  <si>
-    <t>Ch_Relation_Coincidence</t>
-  </si>
-  <si>
-    <t>Ch_ResultAndEfficiency</t>
-  </si>
-  <si>
-    <t>Ch_Richness</t>
-  </si>
-  <si>
-    <t>Ch_Scale</t>
-  </si>
-  <si>
-    <t>Ch_Situation_IntentionConsideration</t>
-  </si>
-  <si>
-    <t>Ch_SocialConditions</t>
-  </si>
-  <si>
-    <t>Ch_SocialEconomicSystem</t>
-  </si>
-  <si>
-    <t>Ch_SocialStatus</t>
-  </si>
-  <si>
-    <t>Ch_Sound</t>
-  </si>
-  <si>
-    <t>Ch_Standard</t>
-  </si>
-  <si>
-    <t>Ch_Steadiness</t>
-  </si>
-  <si>
-    <t>Ch_Style</t>
-  </si>
-  <si>
-    <t>Ch_Suitability</t>
-  </si>
-  <si>
-    <t>Ch_TasteSmell</t>
-  </si>
-  <si>
-    <t>Ch_VariousRelation</t>
-  </si>
-  <si>
-    <t>ChRelation_Grade</t>
-  </si>
-  <si>
-    <t>DegreeOfDevelopment</t>
-  </si>
-  <si>
-    <t>ExtensionInSpace</t>
-  </si>
-  <si>
-    <t>Modality</t>
-  </si>
-  <si>
-    <t>SphereOfCoverage</t>
-  </si>
-  <si>
-    <t>Ch_DimensionalFormat</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_Density</t>
-  </si>
-  <si>
-    <t>Ch_Parameter_SubstanceComposition</t>
-  </si>
-  <si>
-    <t>ComparisonBase_AsStandard</t>
-  </si>
-  <si>
-    <t>DegreeCorrelative</t>
-  </si>
-  <si>
-    <t>Concurrent_Situative</t>
-  </si>
-  <si>
-    <t>TypicalContents</t>
-  </si>
-  <si>
-    <t>Criterion_General</t>
-  </si>
-  <si>
-    <t>DegreeAlmost</t>
-  </si>
-  <si>
-    <t>DegreeApproximative</t>
-  </si>
-  <si>
-    <t>DegreeIntensity</t>
-  </si>
-  <si>
-    <t>DegreeMultiplicative</t>
-  </si>
-  <si>
-    <t>DegreeNegative</t>
-  </si>
-  <si>
-    <t>DegreeSize</t>
-  </si>
-  <si>
-    <t>PragmaticDefinition</t>
-  </si>
-  <si>
-    <t>DegreeNumerative</t>
-  </si>
-  <si>
-    <t>Whole_Elective</t>
-  </si>
-  <si>
-    <t>WholeElective_WithVerbalCore</t>
-  </si>
-  <si>
-    <t>FormatForInformationObject</t>
-  </si>
-  <si>
-    <t>FormOfElectronic_Representation</t>
-  </si>
-  <si>
-    <t>FormOfPacking</t>
-  </si>
-  <si>
-    <t>FormOfRepresentation_General</t>
-  </si>
-  <si>
-    <t>RepresentedFormOfObjectOrCharacteristic</t>
-  </si>
-  <si>
-    <t>Instrument_Being</t>
-  </si>
-  <si>
-    <t>Instrument_Cognitive</t>
-  </si>
-  <si>
-    <t>Instrument_Time</t>
-  </si>
-  <si>
-    <t>InstrumentRoute</t>
-  </si>
-  <si>
-    <t>Representant_In_Instance</t>
-  </si>
-  <si>
-    <t>InstrumentRoute_Situation</t>
-  </si>
-  <si>
-    <t>Locative_Event</t>
-  </si>
-  <si>
-    <t>Locative_Orientation</t>
-  </si>
-  <si>
-    <t>Locative_AttributeGenitive</t>
-  </si>
-  <si>
-    <t>Locative_Distance_Marginal</t>
-  </si>
-  <si>
-    <t>Locative_Orientation_FinalPoint</t>
-  </si>
-  <si>
-    <t>LocativeEvent_FinalPoint</t>
-  </si>
-  <si>
-    <t>Locative_Orientation_InitialPoint</t>
-  </si>
-  <si>
-    <t>LocativeEvent_InitialPoint</t>
-  </si>
-  <si>
-    <t>MannerOfGivingAndGetting</t>
-  </si>
-  <si>
-    <t>ObjectPredicateDoubling</t>
-  </si>
-  <si>
-    <t>MannerOfPositionAndMotion_FP</t>
-  </si>
-  <si>
-    <t>MannerOfPositionAndMotion_IP</t>
-  </si>
-  <si>
-    <t>Locative_PartAsOrientation</t>
-  </si>
-  <si>
-    <t>CharacteristicOfMathPower</t>
-  </si>
-  <si>
-    <t>CharacteristicOfNumber</t>
-  </si>
-  <si>
-    <t>Motive_Normative</t>
-  </si>
-  <si>
-    <t>Classifier_Acronym</t>
-  </si>
-  <si>
-    <t>Classifier_InitialsOrPatronymic</t>
-  </si>
-  <si>
-    <t>Classifier_Name</t>
-  </si>
-  <si>
-    <t>Classifier_Name_LeftComponent</t>
-  </si>
-  <si>
-    <t>Classifier_Name_OfName</t>
-  </si>
-  <si>
-    <t>Classifier_Title</t>
-  </si>
-  <si>
-    <t>Object_CreationDestruction</t>
-  </si>
-  <si>
-    <t>Object_DiscoursiveUnit</t>
-  </si>
-  <si>
-    <t>Object_Hole</t>
-  </si>
-  <si>
-    <t>Object_SituationLike</t>
-  </si>
-  <si>
-    <t>Opposition_Attributive</t>
-  </si>
-  <si>
-    <t>Coincidence_Parenthetic</t>
-  </si>
-  <si>
-    <t>NonClauseModality</t>
-  </si>
-  <si>
-    <t>Parenthetic_ResultOfSummation</t>
-  </si>
-  <si>
-    <t>Parenthetical_ConcreteAbstract</t>
-  </si>
-  <si>
-    <t>Parenthetical_EmotionsBehaviour</t>
-  </si>
-  <si>
-    <t>Parenthetical_Habitualness</t>
-  </si>
-  <si>
-    <t>Parenthetical_Secrecy</t>
-  </si>
-  <si>
-    <t>Parenthetical_Standpoint</t>
-  </si>
-  <si>
-    <t>ParentheticalAccentuation</t>
-  </si>
-  <si>
-    <t>ParentheticalConcession</t>
-  </si>
-  <si>
-    <t>ParentheticalCondition</t>
-  </si>
-  <si>
-    <t>ParentheticalOrder</t>
-  </si>
-  <si>
-    <t>ParentheticalSalience</t>
-  </si>
-  <si>
-    <t>ParentheticalSpecification</t>
-  </si>
-  <si>
-    <t>SourceOfInformation_Parenthetical</t>
-  </si>
-  <si>
-    <t>Specification_ParentheticalAttribution</t>
-  </si>
-  <si>
-    <t>TextStructure</t>
-  </si>
-  <si>
-    <t>PartComplement_EntityLike</t>
-  </si>
-  <si>
-    <t>Part_ClothOrAccessory</t>
-  </si>
-  <si>
-    <t>Part_OfSurface</t>
-  </si>
-  <si>
-    <t>PartComplement_SituationLike</t>
-  </si>
-  <si>
-    <t>Predicate_IndependentPossible</t>
-  </si>
-  <si>
-    <t>DirectSpeech</t>
-  </si>
-  <si>
-    <t>PrincipleOfOrganization_General</t>
-  </si>
-  <si>
-    <t>Purpose_Aim</t>
-  </si>
-  <si>
-    <t>Purpose_Goal</t>
-  </si>
-  <si>
-    <t>PurposeOfMovementOrSending</t>
-  </si>
-  <si>
-    <t>BeneMalefactiveDative_Metaphoric</t>
-  </si>
-  <si>
-    <t>Quantity_Compound</t>
-  </si>
-  <si>
-    <t>Quantity_Denominator</t>
-  </si>
-  <si>
-    <t>Quantity_Dictate</t>
-  </si>
-  <si>
-    <t>QuantityForComposite</t>
-  </si>
-  <si>
-    <t>QuantityForPseudoNumeral</t>
-  </si>
-  <si>
-    <t>Relation_Correlative</t>
-  </si>
-  <si>
-    <t>Relation_Relative</t>
-  </si>
-  <si>
-    <t>Resultative_Actant</t>
-  </si>
-  <si>
-    <t>SetEnvironment_Among</t>
-  </si>
-  <si>
-    <t>SetEnvironment_Between</t>
-  </si>
-  <si>
-    <t>Specification_Clause</t>
-  </si>
-  <si>
-    <t>Specification_Controlled</t>
-  </si>
-  <si>
-    <t>Specification_Origin</t>
-  </si>
-  <si>
-    <t>Specification_Path</t>
-  </si>
-  <si>
-    <t>Specification_Synonym</t>
-  </si>
-  <si>
-    <t>SpecificationAddressComponent</t>
-  </si>
-  <si>
-    <t>SpecificationReduplication</t>
-  </si>
-  <si>
-    <t>SpectatorAsParticipant</t>
-  </si>
-  <si>
-    <t>Sphere_Special</t>
-  </si>
-  <si>
-    <t>Sphere_FinalPoint</t>
-  </si>
-  <si>
-    <t>Sphere_InitialPoint</t>
-  </si>
-  <si>
-    <t>Sphere_Relation</t>
-  </si>
-  <si>
-    <t>Attributive_Sphere</t>
-  </si>
-  <si>
-    <t>Specifier_Date</t>
-  </si>
-  <si>
-    <t>Time_AlreadyStill</t>
-  </si>
-  <si>
-    <t>Time_Being</t>
-  </si>
-  <si>
-    <t>Time_Entity</t>
-  </si>
-  <si>
-    <t>Time_Situation</t>
-  </si>
-  <si>
-    <t>Time_Situation_Genitive</t>
-  </si>
-  <si>
-    <t>Time_Source</t>
-  </si>
-  <si>
-    <t>TimeOClock</t>
-  </si>
-  <si>
-    <t>Whole_ForVisualAudiblePart</t>
   </si>
 </sst>
 </file>
@@ -3750,7 +3114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3759,11 +3123,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3843,7 +3204,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3852,7 +3213,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3885,21 +3246,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3915,7 +3267,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3933,21 +3285,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3978,9 +3315,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4002,9 +3336,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4020,7 +3351,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4029,57 +3360,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4405,5370 +3699,4453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54484BB-7926-490D-B8CE-41FC065C7644}">
   <dimension ref="A1:E451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" style="94" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.53515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="30.53515625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="66.3828125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="56.69140625" customWidth="1"/>
+    <col min="5" max="5" width="30.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>779</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="60" t="s">
         <v>767</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="60" t="s">
         <v>934</v>
       </c>
-      <c r="E1" s="100" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="73" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="101" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>933</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="102" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="74" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="C4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="101" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>780</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="101" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="91" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="80" t="s">
         <v>778</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="101" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="73" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="101" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>781</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="101" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="70" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="101" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>782</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="103" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>783</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="73" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="101" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="74" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="101" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>784</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="105" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="70" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="61" t="s">
         <v>627</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="68" t="s">
         <v>628</v>
       </c>
-      <c r="E15" s="101" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="48" t="s">
         <v>785</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="103" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>786</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="104" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>935</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="62" t="s">
         <v>787</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="69" t="s">
         <v>790</v>
       </c>
-      <c r="E18" s="104" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
         <v>718</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>789</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="62" t="s">
         <v>719</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="69" t="s">
         <v>720</v>
       </c>
-      <c r="E19" s="103" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>788</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A21" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="62" t="s">
         <v>622</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="69" t="s">
         <v>623</v>
       </c>
-      <c r="E21" s="103" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>791</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="62" t="s">
         <v>625</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="69" t="s">
         <v>626</v>
       </c>
-      <c r="E22" s="102" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="72" t="s">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="63" t="s">
         <v>630</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="E23" s="101" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="73" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="106" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="74" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="101" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="74" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="16"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="75" t="s">
         <v>796</v>
       </c>
-      <c r="E26" s="101" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="74" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="101" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="74" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="65" t="s">
         <v>794</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="101" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="74" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="101" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="39" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="38" t="s">
         <v>792</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="101" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A31" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="102" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="74" t="s">
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="101" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="74" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="82" t="s">
+      <c r="D33" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="101" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="74" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="101" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="74" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="101" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="74" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="82" t="s">
+      <c r="D36" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="101" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="74" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="101" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="70" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="101" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="102" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="73" t="s">
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="101" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>795</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="E41" s="102" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="74" t="s">
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="11"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="E42" s="106" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="74" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="11"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="E43" s="101" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="73" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="80" t="s">
+      <c r="D44" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="101" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="74" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="9"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="101" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="74" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="E46" s="101" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="74" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="101" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="74" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="101" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="74" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="82" t="s">
+      <c r="D49" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="101" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="74" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="82" t="s">
+      <c r="D50" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="E50" s="101" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="74" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D51" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="101" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="74" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="101" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="74" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A53" s="9"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="82" t="s">
+      <c r="D53" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="101" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="74" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="101" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="74" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="82" t="s">
+      <c r="D55" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="101" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="74" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="65" t="s">
         <v>799</v>
       </c>
-      <c r="D56" s="82" t="s">
+      <c r="D56" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="101" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="74" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="9"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="82" t="s">
+      <c r="D57" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="101" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="74" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="101" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A59" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="39" t="s">
         <v>801</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="86" t="s">
+      <c r="D59" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="102" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="40" t="s">
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A60" s="17"/>
+      <c r="B60" s="39" t="s">
         <v>798</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="D60" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="107" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="74" t="s">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="9"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="82" t="s">
+      <c r="D61" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="101" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="74" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="9"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D62" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="101" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="74" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="82" t="s">
+      <c r="D63" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="101" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="74" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="16"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="82" t="s">
+      <c r="D64" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="101" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="74" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="82" t="s">
+      <c r="D65" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="101" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="74" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="9"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="65" t="s">
         <v>800</v>
       </c>
-      <c r="D66" s="82" t="s">
+      <c r="D66" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="101" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="74" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="9"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D67" s="82" t="s">
+      <c r="D67" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="E67" s="101" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="74" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="9"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="82" t="s">
+      <c r="D68" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E68" s="101" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="74" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="9"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="82" t="s">
+      <c r="D69" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="101" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="74" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="9"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="82" t="s">
+      <c r="D70" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="101" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="74" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="9"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D71" s="82" t="s">
+      <c r="D71" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="101" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="74" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="9"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="82" t="s">
+      <c r="D72" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="101" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="74" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="9"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D73" s="82" t="s">
+      <c r="D73" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="101" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="74" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="9"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="D74" s="82" t="s">
+      <c r="D74" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="101" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="74" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A75" s="9"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="D75" s="82" t="s">
+      <c r="D75" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="E75" s="101" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="74" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="9"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D76" s="99"/>
-      <c r="E76" s="108" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="74" t="s">
+      <c r="D76" s="87"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="9"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="D77" s="82" t="s">
+      <c r="D77" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="E77" s="101" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="74" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="9"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D78" s="82" t="s">
+      <c r="D78" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="E78" s="101" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="74" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="9"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="D79" s="82" t="s">
+      <c r="D79" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="E79" s="101" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="74" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="9"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D80" s="82" t="s">
+      <c r="D80" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="E80" s="101" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="74" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="9"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="D81" s="82" t="s">
+      <c r="D81" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="E81" s="101" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="74" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="9"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="82" t="s">
+      <c r="D82" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E82" s="101" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="74" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="9"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="82" t="s">
+      <c r="D83" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="101" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="74" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="9"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="D84" s="82" t="s">
+      <c r="D84" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="E84" s="101" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="74" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="9"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="D85" s="82" t="s">
+      <c r="D85" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="E85" s="101" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="74" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="9"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="82" t="s">
+      <c r="D86" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="E86" s="106" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="74" t="s">
+    </row>
+    <row r="87" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A87" s="9"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="D87" s="82" t="s">
+      <c r="D87" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="E87" s="101" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="74" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="9"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="D88" s="82" t="s">
+      <c r="D88" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="E88" s="101" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="74" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="9"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="D89" s="82" t="s">
+      <c r="D89" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="E89" s="101" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="74" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="9"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="D90" s="82" t="s">
+      <c r="D90" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E90" s="101" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="74" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="9"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="D91" s="82" t="s">
+      <c r="D91" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="E91" s="101" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="74" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="9"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="D92" s="82" t="s">
+      <c r="D92" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="E92" s="101" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="74" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A93" s="9"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="D93" s="82" t="s">
+      <c r="D93" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="E93" s="101" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="74" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A94" s="9"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="D94" s="82" t="s">
+      <c r="D94" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="E94" s="106" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="74" t="s">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="9"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D95" s="82" t="s">
+      <c r="D95" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="E95" s="101" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="74" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="9"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="D96" s="82" t="s">
+      <c r="D96" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="E96" s="101" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="74" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="9"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="D97" s="82" t="s">
+      <c r="D97" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="E97" s="101" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="74" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="9"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="82" t="s">
+      <c r="D98" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="E98" s="101" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="74" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="9"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="D99" s="82" t="s">
+      <c r="D99" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="E99" s="101" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="74" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="9"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="D100" s="82" t="s">
+      <c r="D100" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="E100" s="101" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="74" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="9"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="82" t="s">
+      <c r="D101" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="E101" s="101" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="74" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="9"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="D102" s="82" t="s">
+      <c r="D102" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="E102" s="101" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="74" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="9"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="D103" s="82" t="s">
+      <c r="D103" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="E103" s="101" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="74" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="9"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="D104" s="82" t="s">
+      <c r="D104" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E104" s="101" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="74" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="9"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="D105" s="82" t="s">
+      <c r="D105" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="E105" s="101" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="74" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="9"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="D106" s="82" t="s">
+      <c r="D106" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="E106" s="101" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="74" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="9"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="D107" s="82" t="s">
+      <c r="D107" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="E107" s="101" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="74" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="9"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D108" s="82" t="s">
+      <c r="D108" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="E108" s="101" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="74" t="s">
+    </row>
+    <row r="109" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A109" s="9"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="D109" s="82" t="s">
+      <c r="D109" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="E109" s="101" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="74" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="9"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="D110" s="82" t="s">
+      <c r="D110" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E110" s="101" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="74" t="s">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="9"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="82" t="s">
+      <c r="D111" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="101" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="70" t="s">
+    </row>
+    <row r="112" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A112" s="10"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="D112" s="83" t="s">
+      <c r="D112" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="E112" s="106" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+    </row>
+    <row r="113" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A113" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="36" t="s">
         <v>937</v>
       </c>
-      <c r="C113" s="75" t="s">
+      <c r="C113" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="D113" s="78" t="s">
+      <c r="D113" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="E113" s="102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A114" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="C114" s="71" t="s">
+      <c r="C114" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D114" s="79" t="s">
+      <c r="D114" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="E114" s="103" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A115" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="40" t="s">
         <v>938</v>
       </c>
-      <c r="C115" s="71" t="s">
+      <c r="C115" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D115" s="79" t="s">
+      <c r="D115" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E115" s="103" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A116" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="B116" s="46" t="s">
         <v>803</v>
       </c>
-      <c r="C116" s="71" t="s">
+      <c r="C116" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="D116" s="81" t="s">
+      <c r="D116" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="E116" s="104" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+    </row>
+    <row r="117" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A117" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="35" t="s">
         <v>804</v>
       </c>
-      <c r="C117" s="72" t="s">
+      <c r="C117" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="D117" s="84" t="s">
+      <c r="D117" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="E117" s="103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="21" t="s">
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="43" t="s">
         <v>805</v>
       </c>
-      <c r="C118" s="73" t="s">
+      <c r="C118" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="D118" s="80" t="s">
+      <c r="D118" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="E118" s="101" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="70" t="s">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119" s="10"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="D119" s="83" t="s">
+      <c r="D119" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="E119" s="101" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="41" t="s">
         <v>806</v>
       </c>
-      <c r="C120" s="75" t="s">
+      <c r="C120" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="D120" s="83" t="s">
+      <c r="D120" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="E120" s="104" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A121" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B121" s="47" t="s">
+      <c r="B121" s="46" t="s">
         <v>807</v>
       </c>
-      <c r="C121" s="71" t="s">
+      <c r="C121" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="D121" s="81" t="s">
+      <c r="D121" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="E121" s="104" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
+    </row>
+    <row r="122" spans="1:5" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+      <c r="A122" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="C122" s="71" t="s">
+      <c r="C122" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="D122" s="79" t="s">
+      <c r="D122" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="E122" s="103" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B123" s="47" t="s">
+      <c r="B123" s="46" t="s">
         <v>809</v>
       </c>
-      <c r="C123" s="71" t="s">
+      <c r="C123" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="D123" s="81" t="s">
+      <c r="D123" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="E123" s="104" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+    </row>
+    <row r="124" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A124" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="37" t="s">
         <v>810</v>
       </c>
-      <c r="C124" s="71" t="s">
+      <c r="C124" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="D124" s="79" t="s">
+      <c r="D124" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="E124" s="103" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A125" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B125" s="47" t="s">
+      <c r="B125" s="46" t="s">
         <v>811</v>
       </c>
-      <c r="C125" s="71" t="s">
+      <c r="C125" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="D125" s="81" t="s">
+      <c r="D125" s="71" t="s">
         <v>308</v>
       </c>
-      <c r="E125" s="104" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B126" s="47" t="s">
+      <c r="B126" s="46" t="s">
         <v>812</v>
       </c>
-      <c r="C126" s="71" t="s">
+      <c r="C126" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="D126" s="81" t="s">
+      <c r="D126" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="E126" s="104" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
+    </row>
+    <row r="127" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A127" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="B127" s="47" t="s">
+      <c r="B127" s="46" t="s">
         <v>813</v>
       </c>
-      <c r="C127" s="71" t="s">
+      <c r="C127" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="D127" s="81" t="s">
+      <c r="D127" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="E127" s="104" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
+    </row>
+    <row r="128" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A128" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="B128" s="47" t="s">
+      <c r="B128" s="46" t="s">
         <v>814</v>
       </c>
-      <c r="C128" s="71" t="s">
+      <c r="C128" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="D128" s="81" t="s">
+      <c r="D128" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="E128" s="104" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
+    </row>
+    <row r="129" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A129" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="37" t="s">
         <v>815</v>
       </c>
-      <c r="C129" s="71" t="s">
+      <c r="C129" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="D129" s="79" t="s">
+      <c r="D129" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="E129" s="103" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="B130" s="47" t="s">
+      <c r="B130" s="46" t="s">
         <v>816</v>
       </c>
-      <c r="C130" s="71" t="s">
+      <c r="C130" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="D130" s="81" t="s">
+      <c r="D130" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="E130" s="104" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="16" t="s">
+    </row>
+    <row r="131" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A131" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="35" t="s">
         <v>817</v>
       </c>
-      <c r="C131" s="72" t="s">
+      <c r="C131" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D131" s="84" t="s">
+      <c r="D131" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="E131" s="103" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="73" t="s">
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132" s="6"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="D132" s="80" t="s">
+      <c r="D132" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="E132" s="101" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="74" t="s">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133" s="11"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="D133" s="82" t="s">
+      <c r="D133" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="E133" s="101" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="74" t="s">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134" s="11"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="D134" s="82" t="s">
+      <c r="D134" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="E134" s="101" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+    </row>
+    <row r="135" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A135" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B135" s="40" t="s">
+      <c r="B135" s="39" t="s">
         <v>818</v>
       </c>
-      <c r="C135" s="74" t="s">
+      <c r="C135" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="D135" s="86" t="s">
+      <c r="D135" s="75" t="s">
         <v>347</v>
       </c>
-      <c r="E135" s="102" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="74" t="s">
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136" s="11"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="D136" s="82" t="s">
+      <c r="D136" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="E136" s="101" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="74" t="s">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137" s="11"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D137" s="82" t="s">
+      <c r="D137" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="E137" s="101" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="74" t="s">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A138" s="11"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="D138" s="82" t="s">
+      <c r="D138" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="E138" s="101" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
+    </row>
+    <row r="139" spans="1:5" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A139" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="37" t="s">
         <v>821</v>
       </c>
-      <c r="C139" s="71" t="s">
+      <c r="C139" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="D139" s="79" t="s">
+      <c r="D139" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="E139" s="102" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A140" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B140" s="44" t="s">
+      <c r="B140" s="43" t="s">
         <v>886</v>
       </c>
-      <c r="C140" s="73" t="s">
+      <c r="C140" s="64" t="s">
         <v>569</v>
       </c>
-      <c r="D140" s="80" t="s">
+      <c r="D140" s="70" t="s">
         <v>570</v>
       </c>
-      <c r="E140" s="101" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="59"/>
-      <c r="C141" s="70" t="s">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141" s="21"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="61" t="s">
         <v>573</v>
       </c>
-      <c r="D141" s="83" t="s">
+      <c r="D141" s="73" t="s">
         <v>574</v>
       </c>
-      <c r="E141" s="101" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B142" s="42" t="s">
+      <c r="B142" s="41" t="s">
         <v>819</v>
       </c>
-      <c r="C142" s="75"/>
-      <c r="D142" s="83"/>
-      <c r="E142" s="104" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
+      <c r="C142" s="66"/>
+      <c r="D142" s="73"/>
+    </row>
+    <row r="143" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="37" t="s">
         <v>887</v>
       </c>
-      <c r="C143" s="71" t="s">
+      <c r="C143" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="D143" s="79" t="s">
+      <c r="D143" s="69" t="s">
         <v>363</v>
       </c>
-      <c r="E143" s="109" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A144" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" s="37" t="s">
         <v>888</v>
       </c>
-      <c r="C144" s="71" t="s">
+      <c r="C144" s="62" t="s">
         <v>648</v>
       </c>
-      <c r="D144" s="79" t="s">
+      <c r="D144" s="69" t="s">
         <v>649</v>
       </c>
-      <c r="E144" s="103" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="B145" s="47" t="s">
+      <c r="B145" s="46" t="s">
         <v>820</v>
       </c>
-      <c r="C145" s="71" t="s">
+      <c r="C145" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="D145" s="81" t="s">
+      <c r="D145" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="E145" s="104" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
+    </row>
+    <row r="146" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A146" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="37" t="s">
         <v>930</v>
       </c>
-      <c r="C146" s="71" t="s">
+      <c r="C146" s="62" t="s">
         <v>371</v>
       </c>
-      <c r="D146" s="79" t="s">
+      <c r="D146" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="E146" s="103" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="20" t="s">
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A147" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="B147" s="47" t="s">
+      <c r="B147" s="46" t="s">
         <v>889</v>
       </c>
-      <c r="C147" s="71" t="s">
+      <c r="C147" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="D147" s="81" t="s">
+      <c r="D147" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="E147" s="104" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="B148" s="47" t="s">
+      <c r="B148" s="46" t="s">
         <v>890</v>
       </c>
-      <c r="C148" s="71" t="s">
+      <c r="C148" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="D148" s="81" t="s">
+      <c r="D148" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="E148" s="104" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A149" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="C149" s="72" t="s">
+      <c r="C149" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="D149" s="80" t="s">
+      <c r="D149" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="E149" s="104" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="73" t="s">
+    </row>
+    <row r="150" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A150" s="6"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="D150" s="80" t="s">
+      <c r="D150" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="E150" s="101" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="74" t="s">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151" s="11"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="D151" s="82" t="s">
+      <c r="D151" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="E151" s="101" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
+    </row>
+    <row r="152" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A152" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B152" s="40" t="s">
+      <c r="B152" s="39" t="s">
         <v>892</v>
       </c>
-      <c r="C152" s="74" t="s">
+      <c r="C152" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="D152" s="86" t="s">
+      <c r="D152" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="E152" s="102" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="74" t="s">
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A153" s="11"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="D153" s="82" t="s">
+      <c r="D153" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="E153" s="101" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="B154" s="57"/>
-      <c r="C154" s="70" t="s">
+    </row>
+    <row r="154" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A154" s="8"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="D154" s="83" t="s">
+      <c r="D154" s="73" t="s">
         <v>394</v>
       </c>
-      <c r="E154" s="110" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
+    </row>
+    <row r="155" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A155" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B155" s="42" t="s">
+      <c r="B155" s="41" t="s">
         <v>893</v>
       </c>
-      <c r="C155" s="75" t="s">
+      <c r="C155" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="D155" s="78" t="s">
+      <c r="D155" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="E155" s="103" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A156" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="B156" s="47" t="s">
+      <c r="B156" s="46" t="s">
         <v>894</v>
       </c>
-      <c r="C156" s="71" t="s">
+      <c r="C156" s="62" t="s">
         <v>774</v>
       </c>
-      <c r="D156" s="81" t="s">
+      <c r="D156" s="71" t="s">
         <v>517</v>
       </c>
-      <c r="E156" s="104" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="16" t="s">
+    </row>
+    <row r="157" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A157" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B157" s="36" t="s">
+      <c r="B157" s="35" t="s">
         <v>895</v>
       </c>
-      <c r="C157" s="72" t="s">
+      <c r="C157" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="D157" s="84" t="s">
+      <c r="D157" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="E157" s="103" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-      <c r="B158" s="44"/>
-      <c r="C158" s="73" t="s">
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158" s="6"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="D158" s="80" t="s">
+      <c r="D158" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="E158" s="101" t="s">
+    </row>
+    <row r="159" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A159" s="11"/>
+      <c r="B159" s="44"/>
+      <c r="C159" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="D159" s="72" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A160" s="11" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="45"/>
-      <c r="C159" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="D159" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="E159" s="101" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B160" s="45" t="s">
+      <c r="B160" s="44" t="s">
         <v>822</v>
       </c>
-      <c r="C160" s="74" t="s">
+      <c r="C160" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="D160" s="82" t="s">
+      <c r="D160" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="E160" s="101" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="74" t="s">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A161" s="11"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="65" t="s">
         <v>416</v>
       </c>
-      <c r="D161" s="82" t="s">
+      <c r="D161" s="72" t="s">
         <v>415</v>
       </c>
-      <c r="E161" s="101" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
-      <c r="B162" s="45"/>
-      <c r="C162" s="74" t="s">
+    </row>
+    <row r="162" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A162" s="11"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="65" t="s">
         <v>418</v>
       </c>
-      <c r="D162" s="82" t="s">
+      <c r="D162" s="72" t="s">
         <v>419</v>
       </c>
-      <c r="E162" s="101" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
-      <c r="B163" s="45"/>
-      <c r="C163" s="70" t="s">
+    </row>
+    <row r="163" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A163" s="11"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="D163" s="83" t="s">
+      <c r="D163" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="E163" s="101" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="23" t="s">
+    </row>
+    <row r="164" spans="1:5" s="3" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A164" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="B164" s="50" t="s">
+      <c r="B164" s="45" t="s">
         <v>823</v>
       </c>
-      <c r="C164" s="74" t="s">
+      <c r="C164" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="D164" s="87" t="s">
+      <c r="D164" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="E164" s="111" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="57"/>
-      <c r="C165" s="70" t="s">
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A165" s="8"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="D165" s="83" t="s">
+      <c r="D165" s="73" t="s">
         <v>420</v>
       </c>
-      <c r="E165" s="101" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
+    </row>
+    <row r="166" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A166" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="41" t="s">
         <v>824</v>
       </c>
-      <c r="C166" s="75" t="s">
+      <c r="C166" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="D166" s="83" t="s">
+      <c r="D166" s="73" t="s">
         <v>424</v>
       </c>
-      <c r="E166" s="104" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="20" t="s">
+    </row>
+    <row r="167" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A167" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="B167" s="47" t="s">
+      <c r="B167" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="C167" s="71" t="s">
+      <c r="C167" s="62" t="s">
         <v>423</v>
       </c>
-      <c r="D167" s="81" t="s">
+      <c r="D167" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="E167" s="104" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="20" t="s">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A168" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="B168" s="47" t="s">
+      <c r="B168" s="46" t="s">
         <v>896</v>
       </c>
-      <c r="C168" s="71" t="s">
+      <c r="C168" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="D168" s="81" t="s">
+      <c r="D168" s="71" t="s">
         <v>429</v>
       </c>
-      <c r="E168" s="104" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A169" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B169" s="34" t="s">
+      <c r="B169" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="C169" s="72" t="s">
+      <c r="C169" s="63" t="s">
         <v>434</v>
       </c>
-      <c r="D169" s="80" t="s">
+      <c r="D169" s="70" t="s">
         <v>435</v>
       </c>
-      <c r="E169" s="104" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
-      <c r="B170" s="60"/>
-      <c r="C170" s="90" t="s">
+    </row>
+    <row r="170" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A170" s="6"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="D170" s="80" t="s">
+      <c r="D170" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E170" s="101" t="s">
+    </row>
+    <row r="171" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A171" s="11" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B171" s="61" t="s">
+      <c r="B171" s="57" t="s">
         <v>826</v>
       </c>
-      <c r="C171" s="91" t="s">
+      <c r="C171" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="D171" s="82" t="s">
+      <c r="D171" s="72" t="s">
         <v>442</v>
       </c>
-      <c r="E171" s="101" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
-      <c r="B172" s="61"/>
-      <c r="C172" s="91" t="s">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A172" s="11"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="D172" s="82" t="s">
+      <c r="D172" s="72" t="s">
         <v>444</v>
       </c>
-      <c r="E172" s="101" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="43"/>
-      <c r="C173" s="92" t="s">
+    </row>
+    <row r="173" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A173" s="12"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="81" t="s">
         <v>440</v>
       </c>
-      <c r="D173" s="78" t="s">
+      <c r="D173" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="E173" s="102" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A174" s="13" t="s">
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A174" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B174" s="37" t="s">
+      <c r="B174" s="36" t="s">
         <v>827</v>
       </c>
-      <c r="C174" s="75" t="s">
+      <c r="C174" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="D174" s="78" t="s">
+      <c r="D174" s="68" t="s">
         <v>447</v>
       </c>
-      <c r="E174" s="103" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="16" t="s">
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A175" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="B175" s="44" t="s">
+      <c r="B175" s="43" t="s">
         <v>828</v>
       </c>
-      <c r="C175" s="73" t="s">
+      <c r="C175" s="64" t="s">
         <v>449</v>
       </c>
-      <c r="D175" s="84" t="s">
+      <c r="D175" s="74" t="s">
         <v>450</v>
       </c>
-      <c r="E175" s="102" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
-      <c r="B176" s="45"/>
-      <c r="C176" s="74" t="s">
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A176" s="11"/>
+      <c r="B176" s="44"/>
+      <c r="C176" s="65" t="s">
         <v>451</v>
       </c>
-      <c r="D176" s="82" t="s">
+      <c r="D176" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="E176" s="101" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
-      <c r="B177" s="44"/>
-      <c r="C177" s="73" t="s">
+    </row>
+    <row r="177" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A177" s="6"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="D177" s="80" t="s">
+      <c r="D177" s="70" t="s">
         <v>455</v>
       </c>
-      <c r="E177" s="101" t="s">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A178" s="11" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B178" s="45" t="s">
+      <c r="B178" s="44" t="s">
         <v>829</v>
       </c>
-      <c r="C178" s="74" t="s">
+      <c r="C178" s="65" t="s">
         <v>456</v>
       </c>
-      <c r="D178" s="82" t="s">
+      <c r="D178" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="E178" s="101" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
-      <c r="B179" s="45"/>
-      <c r="C179" s="70" t="s">
+    </row>
+    <row r="179" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A179" s="11"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="D179" s="83" t="s">
+      <c r="D179" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="E179" s="101" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A180" s="15" t="s">
+    </row>
+    <row r="180" spans="1:5" s="2" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A180" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="37" t="s">
         <v>830</v>
       </c>
-      <c r="C180" s="76" t="s">
+      <c r="C180" s="67" t="s">
         <v>461</v>
       </c>
-      <c r="D180" s="86" t="s">
+      <c r="D180" s="75" t="s">
         <v>462</v>
       </c>
-      <c r="E180" s="103" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
-      <c r="B181" s="44"/>
-      <c r="C181" s="73" t="s">
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A181" s="6"/>
+      <c r="B181" s="43"/>
+      <c r="C181" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="D181" s="80" t="s">
+      <c r="D181" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="E181" s="101" t="s">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A182" s="11" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B182" s="45" t="s">
+      <c r="B182" s="44" t="s">
         <v>831</v>
       </c>
-      <c r="C182" s="74" t="s">
+      <c r="C182" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="D182" s="82" t="s">
+      <c r="D182" s="72" t="s">
         <v>467</v>
       </c>
-      <c r="E182" s="101" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
-      <c r="C183" s="70" t="s">
+    </row>
+    <row r="183" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A183" s="8"/>
+      <c r="C183" s="61" t="s">
         <v>469</v>
       </c>
-      <c r="D183" s="83" t="s">
+      <c r="D183" s="73" t="s">
         <v>468</v>
       </c>
-      <c r="E183" s="101" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A184" s="15" t="s">
+    </row>
+    <row r="184" spans="1:5" s="2" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A184" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="C184" s="75" t="s">
+      <c r="C184" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="D184" s="78" t="s">
+      <c r="D184" s="68" t="s">
         <v>472</v>
       </c>
-      <c r="E184" s="103" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="20" t="s">
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A185" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="B185" s="47" t="s">
+      <c r="B185" s="46" t="s">
         <v>833</v>
       </c>
-      <c r="C185" s="71" t="s">
+      <c r="C185" s="62" t="s">
         <v>474</v>
       </c>
-      <c r="D185" s="81" t="s">
+      <c r="D185" s="71" t="s">
         <v>475</v>
       </c>
-      <c r="E185" s="104" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A186" s="15" t="s">
+    </row>
+    <row r="186" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A186" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="37" t="s">
         <v>834</v>
       </c>
-      <c r="C186" s="71" t="s">
+      <c r="C186" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="D186" s="79" t="s">
+      <c r="D186" s="69" t="s">
         <v>477</v>
       </c>
-      <c r="E186" s="103" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="13" t="s">
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A187" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="36" t="s">
         <v>835</v>
       </c>
-      <c r="C187" s="71" t="s">
+      <c r="C187" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="D187" s="79" t="s">
+      <c r="D187" s="69" t="s">
         <v>481</v>
       </c>
-      <c r="E187" s="103" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A188" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B188" s="34" t="s">
+      <c r="B188" s="33" t="s">
         <v>836</v>
       </c>
-      <c r="C188" s="93"/>
-      <c r="D188" s="80"/>
-      <c r="E188" s="104" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
-      <c r="B189" s="44"/>
-      <c r="C189" s="73" t="s">
+      <c r="C188" s="82"/>
+      <c r="D188" s="70"/>
+    </row>
+    <row r="189" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A189" s="6"/>
+      <c r="B189" s="43"/>
+      <c r="C189" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="D189" s="80" t="s">
+      <c r="D189" s="70" t="s">
         <v>485</v>
       </c>
-      <c r="E189" s="101" t="s">
+    </row>
+    <row r="190" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A190" s="7" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B190" s="45" t="s">
+      <c r="B190" s="44" t="s">
         <v>837</v>
       </c>
-      <c r="C190" s="74" t="s">
+      <c r="C190" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="D190" s="86" t="s">
+      <c r="D190" s="75" t="s">
         <v>488</v>
       </c>
-      <c r="E190" s="102" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="57"/>
-      <c r="C191" s="70" t="s">
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A191" s="8"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="61" t="s">
         <v>489</v>
       </c>
-      <c r="D191" s="83" t="s">
+      <c r="D191" s="73" t="s">
         <v>490</v>
       </c>
-      <c r="E191" s="101" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
+    </row>
+    <row r="192" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A192" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="B192" s="42" t="s">
+      <c r="B192" s="41" t="s">
         <v>838</v>
       </c>
-      <c r="C192" s="75" t="s">
+      <c r="C192" s="66" t="s">
         <v>492</v>
       </c>
-      <c r="D192" s="78" t="s">
+      <c r="D192" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="E192" s="103" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="16" t="s">
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A193" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="B193" s="36" t="s">
+      <c r="B193" s="35" t="s">
         <v>903</v>
       </c>
-      <c r="C193" s="72" t="s">
+      <c r="C193" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="D193" s="84" t="s">
+      <c r="D193" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="E193" s="103" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="24" t="s">
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A194" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="B194" s="46" t="s">
+      <c r="B194" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="C194" s="73" t="s">
+      <c r="C194" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="D194" s="84" t="s">
+      <c r="D194" s="74" t="s">
         <v>498</v>
       </c>
-      <c r="E194" s="102" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="63"/>
-      <c r="C195" s="74" t="s">
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A195" s="9"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="65" t="s">
         <v>502</v>
       </c>
-      <c r="D195" s="82" t="s">
+      <c r="D195" s="72" t="s">
         <v>501</v>
       </c>
-      <c r="E195" s="101" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
-      <c r="B196" s="64"/>
-      <c r="C196" s="70" t="s">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A196" s="10"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="D196" s="83" t="s">
+      <c r="D196" s="73" t="s">
         <v>503</v>
       </c>
-      <c r="E196" s="101" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A197" s="13" t="s">
+    </row>
+    <row r="197" spans="1:5" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A197" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="B197" s="37" t="s">
+      <c r="B197" s="36" t="s">
         <v>898</v>
       </c>
-      <c r="C197" s="71" t="s">
+      <c r="C197" s="62" t="s">
         <v>907</v>
       </c>
-      <c r="D197" s="79" t="s">
+      <c r="D197" s="69" t="s">
         <v>497</v>
       </c>
-      <c r="E197" s="103" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A198" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B198" s="65" t="s">
+      <c r="B198" s="33" t="s">
         <v>901</v>
       </c>
-      <c r="C198" s="71" t="s">
+      <c r="C198" s="62" t="s">
         <v>655</v>
       </c>
-      <c r="D198" s="81" t="s">
+      <c r="D198" s="71" t="s">
         <v>656</v>
       </c>
-      <c r="E198" s="101" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
-      <c r="B199" s="66"/>
-      <c r="C199" s="71" t="s">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A199" s="8"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="62" t="s">
         <v>657</v>
       </c>
-      <c r="D199" s="81" t="s">
+      <c r="D199" s="71" t="s">
         <v>658</v>
       </c>
-      <c r="E199" s="101" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
+    </row>
+    <row r="200" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A200" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="B200" s="37" t="s">
+      <c r="B200" s="36" t="s">
         <v>929</v>
       </c>
-      <c r="C200" s="71" t="s">
+      <c r="C200" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="D200" s="79" t="s">
+      <c r="D200" s="69" t="s">
         <v>506</v>
       </c>
-      <c r="E200" s="103" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="20" t="s">
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A201" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B201" s="47" t="s">
+      <c r="B201" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="C201" s="71" t="s">
+      <c r="C201" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="D201" s="81" t="s">
+      <c r="D201" s="71" t="s">
         <v>510</v>
       </c>
-      <c r="E201" s="104" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="20" t="s">
+    </row>
+    <row r="202" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A202" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="B202" s="47" t="s">
+      <c r="B202" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="C202" s="71" t="s">
+      <c r="C202" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="D202" s="81" t="s">
+      <c r="D202" s="71" t="s">
         <v>633</v>
       </c>
-      <c r="E202" s="104" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A203" s="15" t="s">
+    </row>
+    <row r="203" spans="1:5" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A203" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="B203" s="47" t="s">
+      <c r="B203" s="46" t="s">
         <v>840</v>
       </c>
-      <c r="C203" s="71" t="s">
+      <c r="C203" s="62" t="s">
         <v>769</v>
       </c>
-      <c r="D203" s="79" t="s">
+      <c r="D203" s="69" t="s">
         <v>634</v>
       </c>
-      <c r="E203" s="103" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A204" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B204" s="34" t="s">
+      <c r="B204" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="C204" s="72" t="s">
+      <c r="C204" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="D204" s="80" t="s">
+      <c r="D204" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="E204" s="104" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
-      <c r="B205" s="44"/>
-      <c r="C205" s="73" t="s">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A205" s="6"/>
+      <c r="B205" s="43"/>
+      <c r="C205" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="80" t="s">
+      <c r="D205" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E205" s="101" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="45"/>
-      <c r="C206" s="74" t="s">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A206" s="11"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D206" s="82" t="s">
+      <c r="D206" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E206" s="101" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A207" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="45" t="s">
+      <c r="B207" s="44" t="s">
         <v>841</v>
       </c>
-      <c r="C207" s="74" t="s">
+      <c r="C207" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="D207" s="82" t="s">
+      <c r="D207" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="E207" s="101" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="B208" s="45"/>
-      <c r="C208" s="74" t="s">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A208" s="11"/>
+      <c r="B208" s="44"/>
+      <c r="C208" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="D208" s="82" t="s">
+      <c r="D208" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E208" s="101" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="45"/>
-      <c r="C209" s="74" t="s">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A209" s="11"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="D209" s="82" t="s">
+      <c r="D209" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E209" s="101" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="45"/>
-      <c r="C210" s="70" t="s">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A210" s="11"/>
+      <c r="B210" s="44"/>
+      <c r="C210" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="D210" s="83" t="s">
+      <c r="D210" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="E210" s="101" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
-      <c r="B211" s="44"/>
-      <c r="C211" s="74" t="s">
+    </row>
+    <row r="211" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A211" s="6"/>
+      <c r="B211" s="43"/>
+      <c r="C211" s="65" t="s">
         <v>777</v>
       </c>
-      <c r="D211" s="82" t="s">
+      <c r="D211" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="E211" s="101" t="s">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A212" s="11"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="65" t="s">
+        <v>525</v>
+      </c>
+      <c r="D212" s="72" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A213" s="11" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="12"/>
-      <c r="B212" s="45"/>
-      <c r="C212" s="74" t="s">
-        <v>525</v>
-      </c>
-      <c r="D212" s="82" t="s">
-        <v>526</v>
-      </c>
-      <c r="E212" s="101" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="B213" s="45" t="s">
+      <c r="B213" s="44" t="s">
         <v>842</v>
       </c>
-      <c r="C213" s="74" t="s">
+      <c r="C213" s="65" t="s">
         <v>532</v>
       </c>
-      <c r="D213" s="82" t="s">
+      <c r="D213" s="72" t="s">
         <v>533</v>
       </c>
-      <c r="E213" s="101" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
-      <c r="B214" s="45"/>
-      <c r="C214" s="74" t="s">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A214" s="11"/>
+      <c r="B214" s="44"/>
+      <c r="C214" s="65" t="s">
         <v>535</v>
       </c>
-      <c r="D214" s="82" t="s">
+      <c r="D214" s="72" t="s">
         <v>534</v>
       </c>
-      <c r="E214" s="101" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
-      <c r="B215" s="57"/>
-      <c r="C215" s="70" t="s">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A215" s="8"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="61" t="s">
         <v>530</v>
       </c>
-      <c r="D215" s="83" t="s">
+      <c r="D215" s="73" t="s">
         <v>531</v>
       </c>
-      <c r="E215" s="101" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="20" t="s">
+    </row>
+    <row r="216" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A216" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="B216" s="47" t="s">
+      <c r="B216" s="46" t="s">
         <v>843</v>
       </c>
-      <c r="C216" s="75" t="s">
+      <c r="C216" s="66" t="s">
         <v>776</v>
       </c>
-      <c r="D216" s="83" t="s">
+      <c r="D216" s="73" t="s">
         <v>529</v>
       </c>
-      <c r="E216" s="104" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="9" t="s">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A217" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B217" s="42" t="s">
+      <c r="B217" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="C217" s="71" t="s">
+      <c r="C217" s="62" t="s">
         <v>537</v>
       </c>
-      <c r="D217" s="81" t="s">
+      <c r="D217" s="71" t="s">
         <v>538</v>
       </c>
-      <c r="E217" s="104" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="16" t="s">
+    </row>
+    <row r="218" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A218" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="B218" s="36" t="s">
+      <c r="B218" s="35" t="s">
         <v>904</v>
       </c>
-      <c r="C218" s="72" t="s">
+      <c r="C218" s="63" t="s">
         <v>540</v>
       </c>
-      <c r="D218" s="84" t="s">
+      <c r="D218" s="74" t="s">
         <v>541</v>
       </c>
-      <c r="E218" s="103" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="7" t="s">
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A219" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B219" s="44" t="s">
+      <c r="B219" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="C219" s="73" t="s">
+      <c r="C219" s="64" t="s">
         <v>722</v>
       </c>
-      <c r="D219" s="80" t="s">
+      <c r="D219" s="70" t="s">
         <v>723</v>
       </c>
-      <c r="E219" s="101" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
-      <c r="B220" s="57"/>
-      <c r="C220" s="70" t="s">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A220" s="8"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="D220" s="83" t="s">
+      <c r="D220" s="73" t="s">
         <v>725</v>
       </c>
-      <c r="E220" s="101" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="13" t="s">
+    </row>
+    <row r="221" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A221" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="B221" s="37" t="s">
+      <c r="B221" s="36" t="s">
         <v>845</v>
       </c>
-      <c r="C221" s="75" t="s">
+      <c r="C221" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="D221" s="78" t="s">
+      <c r="D221" s="68" t="s">
         <v>544</v>
       </c>
-      <c r="E221" s="103" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="20" t="s">
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A222" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="B222" s="47" t="s">
+      <c r="B222" s="46" t="s">
         <v>900</v>
       </c>
-      <c r="C222" s="71" t="s">
+      <c r="C222" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="D222" s="81" t="s">
+      <c r="D222" s="71" t="s">
         <v>546</v>
       </c>
-      <c r="E222" s="104" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A223" s="16" t="s">
+    </row>
+    <row r="223" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A223" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="B223" s="36" t="s">
+      <c r="B223" s="35" t="s">
         <v>905</v>
       </c>
-      <c r="C223" s="72" t="s">
+      <c r="C223" s="63" t="s">
         <v>549</v>
       </c>
-      <c r="D223" s="84" t="s">
+      <c r="D223" s="74" t="s">
         <v>550</v>
       </c>
-      <c r="E223" s="103" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
-      <c r="B224" s="44"/>
-      <c r="C224" s="73" t="s">
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A224" s="6"/>
+      <c r="B224" s="43"/>
+      <c r="C224" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="D224" s="80" t="s">
+      <c r="D224" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="E224" s="101" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="12"/>
-      <c r="B225" s="45"/>
-      <c r="C225" s="74" t="s">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="11"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D225" s="82" t="s">
+      <c r="D225" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="E225" s="101" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="12"/>
-      <c r="B226" s="45"/>
-      <c r="C226" s="74" t="s">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="11"/>
+      <c r="B226" s="44"/>
+      <c r="C226" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="D226" s="82" t="s">
+      <c r="D226" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E226" s="101" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="12"/>
-      <c r="B227" s="45"/>
-      <c r="C227" s="74" t="s">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="11"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D227" s="82" t="s">
+      <c r="D227" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="E227" s="101" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="12"/>
-      <c r="B228" s="45"/>
-      <c r="C228" s="74" t="s">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" s="11"/>
+      <c r="B228" s="44"/>
+      <c r="C228" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D228" s="82" t="s">
+      <c r="D228" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="E228" s="101" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="25"/>
-      <c r="B229" s="40"/>
-      <c r="C229" s="74" t="s">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="24"/>
+      <c r="B229" s="39"/>
+      <c r="C229" s="65" t="s">
         <v>740</v>
       </c>
-      <c r="D229" s="82" t="s">
+      <c r="D229" s="72" t="s">
         <v>741</v>
       </c>
-      <c r="E229" s="101" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="12" t="s">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B230" s="45" t="s">
+      <c r="B230" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="C230" s="74" t="s">
+      <c r="C230" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D230" s="82" t="s">
+      <c r="D230" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="E230" s="101" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="12"/>
-      <c r="B231" s="45"/>
-      <c r="C231" s="74" t="s">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="11"/>
+      <c r="B231" s="44"/>
+      <c r="C231" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="D231" s="82" t="s">
+      <c r="D231" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="E231" s="101" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="12"/>
-      <c r="B232" s="45"/>
-      <c r="C232" s="74" t="s">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="11"/>
+      <c r="B232" s="44"/>
+      <c r="C232" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="D232" s="82" t="s">
+      <c r="D232" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E232" s="101" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="12"/>
-      <c r="B233" s="45"/>
-      <c r="C233" s="74" t="s">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="11"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="D233" s="82" t="s">
+      <c r="D233" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="E233" s="101" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="12"/>
-      <c r="B234" s="45"/>
-      <c r="C234" s="74" t="s">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="11"/>
+      <c r="B234" s="44"/>
+      <c r="C234" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="D234" s="82" t="s">
+      <c r="D234" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="E234" s="101" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="12"/>
-      <c r="B235" s="45"/>
-      <c r="C235" s="74" t="s">
+    </row>
+    <row r="235" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A235" s="11"/>
+      <c r="B235" s="44"/>
+      <c r="C235" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D235" s="82" t="s">
+      <c r="D235" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="E235" s="101" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="12"/>
-      <c r="B236" s="45"/>
-      <c r="C236" s="74" t="s">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" s="11"/>
+      <c r="B236" s="44"/>
+      <c r="C236" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D236" s="82" t="s">
+      <c r="D236" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="E236" s="101" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="25"/>
-      <c r="B237" s="40"/>
-      <c r="C237" s="74" t="s">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237" s="24"/>
+      <c r="B237" s="39"/>
+      <c r="C237" s="65" t="s">
         <v>662</v>
       </c>
-      <c r="D237" s="82" t="s">
+      <c r="D237" s="72" t="s">
         <v>663</v>
       </c>
-      <c r="E237" s="101" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="25"/>
-      <c r="B238" s="40"/>
-      <c r="C238" s="74" t="s">
+    </row>
+    <row r="238" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A238" s="24"/>
+      <c r="B238" s="39"/>
+      <c r="C238" s="65" t="s">
         <v>653</v>
       </c>
-      <c r="D238" s="82" t="s">
+      <c r="D238" s="72" t="s">
         <v>654</v>
       </c>
-      <c r="E238" s="110" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="25"/>
-      <c r="B239" s="40"/>
-      <c r="C239" s="74" t="s">
+    </row>
+    <row r="239" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A239" s="24"/>
+      <c r="B239" s="39"/>
+      <c r="C239" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="D239" s="82" t="s">
+      <c r="D239" s="72" t="s">
         <v>674</v>
       </c>
-      <c r="E239" s="106" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="25"/>
-      <c r="B240" s="40"/>
-      <c r="C240" s="74" t="s">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" s="24"/>
+      <c r="B240" s="39"/>
+      <c r="C240" s="65" t="s">
         <v>732</v>
       </c>
-      <c r="D240" s="82" t="s">
+      <c r="D240" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="E240" s="101" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="7"/>
-      <c r="B241" s="44"/>
-      <c r="C241" s="73" t="s">
+    </row>
+    <row r="241" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A241" s="6"/>
+      <c r="B241" s="43"/>
+      <c r="C241" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="D241" s="80" t="s">
+      <c r="D241" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="E241" s="101" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A242" s="8" t="s">
+    </row>
+    <row r="242" spans="1:5" s="2" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A242" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B242" s="40" t="s">
+      <c r="B242" s="39" t="s">
         <v>910</v>
       </c>
-      <c r="C242" s="74" t="s">
+      <c r="C242" s="65" t="s">
         <v>554</v>
       </c>
-      <c r="D242" s="86" t="s">
+      <c r="D242" s="75" t="s">
         <v>555</v>
       </c>
-      <c r="E242" s="102" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="17"/>
-      <c r="B243" s="45"/>
-      <c r="C243" s="70" t="s">
+      <c r="E242"/>
+    </row>
+    <row r="243" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A243" s="16"/>
+      <c r="B243" s="44"/>
+      <c r="C243" s="61" t="s">
         <v>556</v>
       </c>
-      <c r="D243" s="83" t="s">
+      <c r="D243" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="E243" s="101" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="15" t="s">
+    </row>
+    <row r="244" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A244" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="B244" s="38" t="s">
+      <c r="B244" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="C244" s="75" t="s">
+      <c r="C244" s="66" t="s">
         <v>560</v>
       </c>
-      <c r="D244" s="78" t="s">
+      <c r="D244" s="68" t="s">
         <v>561</v>
       </c>
-      <c r="E244" s="103" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A245" s="15" t="s">
+      <c r="E244"/>
+    </row>
+    <row r="245" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A245" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="B245" s="38" t="s">
+      <c r="B245" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="C245" s="71" t="s">
+      <c r="C245" s="62" t="s">
         <v>552</v>
       </c>
-      <c r="D245" s="79" t="s">
+      <c r="D245" s="69" t="s">
         <v>553</v>
       </c>
-      <c r="E245" s="103" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A246" s="15" t="s">
+      <c r="E245"/>
+    </row>
+    <row r="246" spans="1:5" s="2" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A246" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B246" s="48" t="s">
+      <c r="B246" s="37" t="s">
         <v>911</v>
       </c>
-      <c r="C246" s="71" t="s">
+      <c r="C246" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="79" t="s">
+      <c r="D246" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E246" s="103" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A247" s="15" t="s">
+      <c r="E246"/>
+    </row>
+    <row r="247" spans="1:5" s="2" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A247" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="B247" s="38" t="s">
+      <c r="B247" s="37" t="s">
         <v>912</v>
       </c>
-      <c r="C247" s="71" t="s">
+      <c r="C247" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="D247" s="79" t="s">
+      <c r="D247" s="69" t="s">
         <v>940</v>
       </c>
-      <c r="E247" s="103" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="20" t="s">
+      <c r="E247"/>
+    </row>
+    <row r="248" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A248" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="B248" s="47" t="s">
+      <c r="B248" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="C248" s="71" t="s">
+      <c r="C248" s="62" t="s">
         <v>578</v>
       </c>
-      <c r="D248" s="81" t="s">
+      <c r="D248" s="71" t="s">
         <v>579</v>
       </c>
-      <c r="E248" s="104" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="15" t="s">
+    </row>
+    <row r="249" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A249" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="B249" s="47" t="s">
+      <c r="B249" s="46" t="s">
         <v>848</v>
       </c>
-      <c r="C249" s="71" t="s">
+      <c r="C249" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="D249" s="79" t="s">
+      <c r="D249" s="69" t="s">
         <v>587</v>
       </c>
-      <c r="E249" s="103" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A250" s="15" t="s">
+      <c r="E249"/>
+    </row>
+    <row r="250" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A250" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="B250" s="38" t="s">
+      <c r="B250" s="37" t="s">
         <v>849</v>
       </c>
-      <c r="C250" s="71" t="s">
+      <c r="C250" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="D250" s="79" t="s">
+      <c r="D250" s="69" t="s">
         <v>585</v>
       </c>
-      <c r="E250" s="103" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="15" t="s">
+      <c r="E250"/>
+    </row>
+    <row r="251" spans="1:5" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A251" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="B251" s="48" t="s">
+      <c r="B251" s="37" t="s">
         <v>914</v>
       </c>
-      <c r="C251" s="77" t="s">
+      <c r="C251" s="62" t="s">
         <v>915</v>
       </c>
-      <c r="D251" s="85" t="s">
+      <c r="D251" s="69" t="s">
         <v>582</v>
       </c>
-      <c r="E251" s="103" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A252" s="15" t="s">
+      <c r="E251"/>
+    </row>
+    <row r="252" spans="1:5" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A252" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B252" s="41" t="s">
+      <c r="B252" s="40" t="s">
         <v>941</v>
       </c>
-      <c r="C252" s="71" t="s">
+      <c r="C252" s="62" t="s">
         <v>590</v>
       </c>
-      <c r="D252" s="79" t="s">
+      <c r="D252" s="69" t="s">
         <v>589</v>
       </c>
-      <c r="E252" s="103" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A253" s="16" t="s">
+      <c r="E252"/>
+    </row>
+    <row r="253" spans="1:5" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A253" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B253" s="49" t="s">
+      <c r="B253" s="35" t="s">
         <v>916</v>
       </c>
-      <c r="C253" s="72" t="s">
+      <c r="C253" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D253" s="84" t="s">
+      <c r="D253" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="E253" s="103" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A254" s="7" t="s">
+      <c r="E253"/>
+    </row>
+    <row r="254" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A254" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B254" s="67" t="s">
+      <c r="B254" s="58" t="s">
         <v>917</v>
       </c>
-      <c r="C254" s="73" t="s">
+      <c r="C254" s="64" t="s">
         <v>918</v>
       </c>
-      <c r="D254" s="80" t="s">
+      <c r="D254" s="70" t="s">
         <v>919</v>
       </c>
-      <c r="E254" s="108" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="12"/>
-      <c r="B255" s="45"/>
-      <c r="C255" s="74"/>
-      <c r="D255" s="82"/>
-      <c r="E255" s="101" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="9"/>
-      <c r="B256" s="57"/>
-      <c r="C256" s="70"/>
-      <c r="D256" s="83"/>
-      <c r="E256" s="101" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A257" s="15" t="s">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A255" s="11"/>
+      <c r="B255" s="44"/>
+      <c r="C255" s="65"/>
+      <c r="D255" s="72"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A256" s="8"/>
+      <c r="B256" s="53"/>
+      <c r="C256" s="61"/>
+      <c r="D256" s="73"/>
+    </row>
+    <row r="257" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A257" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="B257" s="38" t="s">
+      <c r="B257" s="37" t="s">
         <v>597</v>
       </c>
-      <c r="C257" s="75" t="s">
+      <c r="C257" s="66" t="s">
         <v>924</v>
       </c>
-      <c r="D257" s="78" t="s">
+      <c r="D257" s="68" t="s">
         <v>925</v>
       </c>
-      <c r="E257" s="103" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A258" s="15" t="s">
+      <c r="E257"/>
+    </row>
+    <row r="258" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A258" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="B258" s="38" t="s">
+      <c r="B258" s="37" t="s">
         <v>923</v>
       </c>
-      <c r="C258" s="71" t="s">
+      <c r="C258" s="62" t="s">
         <v>594</v>
       </c>
-      <c r="D258" s="79" t="s">
+      <c r="D258" s="69" t="s">
         <v>595</v>
       </c>
-      <c r="E258" s="103" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A259" s="16" t="s">
+      <c r="E258"/>
+    </row>
+    <row r="259" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A259" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="B259" s="36" t="s">
+      <c r="B259" s="35" t="s">
         <v>921</v>
       </c>
-      <c r="C259" s="72" t="s">
+      <c r="C259" s="63" t="s">
         <v>920</v>
       </c>
-      <c r="D259" s="84" t="s">
+      <c r="D259" s="74" t="s">
         <v>922</v>
       </c>
-      <c r="E259" s="103" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A260" s="16" t="s">
+      <c r="E259"/>
+    </row>
+    <row r="260" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A260" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="B260" s="50" t="s">
+      <c r="B260" s="45" t="s">
         <v>926</v>
       </c>
-      <c r="C260" s="73" t="s">
+      <c r="C260" s="64" t="s">
         <v>599</v>
       </c>
-      <c r="D260" s="84" t="s">
+      <c r="D260" s="74" t="s">
         <v>600</v>
       </c>
-      <c r="E260" s="102" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="9"/>
-      <c r="B261" s="57"/>
-      <c r="C261" s="70" t="s">
+      <c r="E260"/>
+    </row>
+    <row r="261" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A261" s="8"/>
+      <c r="B261" s="53"/>
+      <c r="C261" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="D261" s="83" t="s">
+      <c r="D261" s="73" t="s">
         <v>602</v>
       </c>
-      <c r="E261" s="101" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="13" t="s">
+    </row>
+    <row r="262" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A262" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="B262" s="37" t="s">
+      <c r="B262" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="C262" s="75" t="s">
+      <c r="C262" s="66" t="s">
         <v>604</v>
       </c>
-      <c r="D262" s="78" t="s">
+      <c r="D262" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="E262" s="103" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="16" t="s">
+      <c r="E262"/>
+    </row>
+    <row r="263" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A263" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="B263" s="36" t="s">
+      <c r="B263" s="35" t="s">
         <v>852</v>
       </c>
-      <c r="C263" s="72" t="s">
+      <c r="C263" s="63" t="s">
         <v>607</v>
       </c>
-      <c r="D263" s="84" t="s">
+      <c r="D263" s="74" t="s">
         <v>608</v>
       </c>
-      <c r="E263" s="103" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="19"/>
-      <c r="B264" s="44"/>
-      <c r="C264" s="73" t="s">
+      <c r="E263"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A264" s="18"/>
+      <c r="B264" s="43"/>
+      <c r="C264" s="64" t="s">
         <v>615</v>
       </c>
-      <c r="D264" s="80" t="s">
+      <c r="D264" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="E264" s="101" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="10" t="s">
+    </row>
+    <row r="265" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A265" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B265" s="45"/>
-      <c r="C265" s="74" t="s">
+      <c r="B265" s="44"/>
+      <c r="C265" s="65" t="s">
         <v>611</v>
       </c>
-      <c r="D265" s="82" t="s">
+      <c r="D265" s="72" t="s">
         <v>612</v>
       </c>
-      <c r="E265" s="101" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
-      <c r="B266" s="45" t="s">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A266" s="9"/>
+      <c r="B266" s="44" t="s">
         <v>850</v>
       </c>
-      <c r="C266" s="74" t="s">
+      <c r="C266" s="65" t="s">
         <v>616</v>
       </c>
-      <c r="D266" s="82" t="s">
+      <c r="D266" s="72" t="s">
         <v>614</v>
       </c>
-      <c r="E266" s="101" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
-      <c r="B267" s="57"/>
-      <c r="C267" s="70" t="s">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A267" s="8"/>
+      <c r="B267" s="53"/>
+      <c r="C267" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D267" s="83"/>
-      <c r="E267" s="110" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="13" t="s">
+      <c r="D267" s="73"/>
+    </row>
+    <row r="268" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A268" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="B268" s="37" t="s">
+      <c r="B268" s="36" t="s">
         <v>858</v>
       </c>
-      <c r="C268" s="75" t="s">
+      <c r="C268" s="66" t="s">
         <v>617</v>
       </c>
-      <c r="D268" s="78" t="s">
+      <c r="D268" s="68" t="s">
         <v>618</v>
       </c>
-      <c r="E268" s="103" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A269" s="16" t="s">
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A269" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="B269" s="51" t="s">
+      <c r="B269" s="47" t="s">
         <v>859</v>
       </c>
-      <c r="C269" s="72" t="s">
+      <c r="C269" s="63" t="s">
         <v>512</v>
       </c>
-      <c r="D269" s="84" t="s">
+      <c r="D269" s="74" t="s">
         <v>513</v>
       </c>
-      <c r="E269" s="103" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="7"/>
-      <c r="B270" s="44"/>
-      <c r="C270" s="73" t="s">
+      <c r="E269"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A270" s="6"/>
+      <c r="B270" s="43"/>
+      <c r="C270" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="D270" s="80" t="s">
+      <c r="D270" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="E270" s="101" t="s">
+    </row>
+    <row r="271" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A271" s="11"/>
+      <c r="B271" s="44"/>
+      <c r="C271" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D271" s="72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A272" s="11" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="12"/>
-      <c r="B271" s="45"/>
-      <c r="C271" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="D271" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="E271" s="101" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B272" s="45" t="s">
+      <c r="B272" s="44" t="s">
         <v>853</v>
       </c>
-      <c r="C272" s="74" t="s">
+      <c r="C272" s="65" t="s">
         <v>619</v>
       </c>
-      <c r="D272" s="82" t="s">
+      <c r="D272" s="72" t="s">
         <v>620</v>
       </c>
-      <c r="E272" s="101" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="12"/>
-      <c r="B273" s="45"/>
-      <c r="C273" s="74" t="s">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A273" s="11"/>
+      <c r="B273" s="44"/>
+      <c r="C273" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="D273" s="82" t="s">
+      <c r="D273" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="E273" s="101" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="12"/>
-      <c r="B274" s="45"/>
-      <c r="C274" s="74" t="s">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A274" s="11"/>
+      <c r="B274" s="44"/>
+      <c r="C274" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="D274" s="82" t="s">
+      <c r="D274" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="E274" s="101" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
-      <c r="B275" s="57"/>
-      <c r="C275" s="70" t="s">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A275" s="8"/>
+      <c r="B275" s="53"/>
+      <c r="C275" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="D275" s="83" t="s">
+      <c r="D275" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="E275" s="101" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="14" t="s">
+    </row>
+    <row r="276" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A276" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B276" s="52" t="s">
+      <c r="B276" s="48" t="s">
         <v>860</v>
       </c>
-      <c r="C276" s="75" t="s">
+      <c r="C276" s="66" t="s">
         <v>771</v>
       </c>
-      <c r="D276" s="78" t="s">
+      <c r="D276" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="E276" s="103" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A277" s="26" t="s">
+      <c r="E276"/>
+    </row>
+    <row r="277" spans="1:5" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A277" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="B277" s="48" t="s">
+      <c r="B277" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="C277" s="77" t="s">
+      <c r="C277" s="62" t="s">
         <v>775</v>
       </c>
-      <c r="D277" s="85" t="s">
+      <c r="D277" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="E277" s="112" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A278" s="15" t="s">
+      <c r="E277"/>
+    </row>
+    <row r="278" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A278" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B278" s="38" t="s">
+      <c r="B278" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="C278" s="71" t="s">
+      <c r="C278" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="D278" s="79" t="s">
+      <c r="D278" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="E278" s="103" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="27" t="s">
+      <c r="E278"/>
+    </row>
+    <row r="279" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A279" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="B279" s="53" t="s">
+      <c r="B279" s="49" t="s">
         <v>864</v>
       </c>
-      <c r="C279" s="71" t="s">
+      <c r="C279" s="62" t="s">
         <v>640</v>
       </c>
-      <c r="D279" s="79" t="s">
+      <c r="D279" s="69" t="s">
         <v>641</v>
       </c>
-      <c r="E279" s="103" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A280" s="28" t="s">
+      <c r="E279"/>
+    </row>
+    <row r="280" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A280" s="27" t="s">
         <v>772</v>
       </c>
-      <c r="B280" s="53" t="s">
+      <c r="B280" s="49" t="s">
         <v>863</v>
       </c>
-      <c r="C280" s="71" t="s">
+      <c r="C280" s="62" t="s">
         <v>638</v>
       </c>
-      <c r="D280" s="79" t="s">
+      <c r="D280" s="69" t="s">
         <v>639</v>
       </c>
-      <c r="E280" s="103" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="7" t="s">
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A281" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B281" s="34" t="s">
+      <c r="B281" s="33" t="s">
         <v>854</v>
       </c>
-      <c r="C281" s="71" t="s">
+      <c r="C281" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="D281" s="81" t="s">
+      <c r="D281" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="E281" s="101" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
-      <c r="B282" s="42"/>
-      <c r="C282" s="71" t="s">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A282" s="8"/>
+      <c r="B282" s="41"/>
+      <c r="C282" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="D282" s="81" t="s">
+      <c r="D282" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="E282" s="101" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A283" s="16" t="s">
+    </row>
+    <row r="283" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A283" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B283" s="36" t="s">
+      <c r="B283" s="35" t="s">
         <v>865</v>
       </c>
-      <c r="C283" s="71" t="s">
+      <c r="C283" s="62" t="s">
         <v>522</v>
       </c>
-      <c r="D283" s="79" t="s">
+      <c r="D283" s="69" t="s">
         <v>523</v>
       </c>
-      <c r="E283" s="103" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A284" s="15" t="s">
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A284" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B284" s="38" t="s">
+      <c r="B284" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="C284" s="72" t="s">
+      <c r="C284" s="63" t="s">
         <v>520</v>
       </c>
-      <c r="D284" s="84" t="s">
+      <c r="D284" s="74" t="s">
         <v>519</v>
       </c>
-      <c r="E284" s="103" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A285" s="16" t="s">
+      <c r="E284"/>
+    </row>
+    <row r="285" spans="1:5" s="2" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A285" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="B285" s="50" t="s">
+      <c r="B285" s="45" t="s">
         <v>857</v>
       </c>
-      <c r="C285" s="73" t="s">
+      <c r="C285" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="D285" s="84" t="s">
+      <c r="D285" s="74" t="s">
         <v>644</v>
       </c>
-      <c r="E285" s="102" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="9"/>
-      <c r="B286" s="57"/>
-      <c r="C286" s="70" t="s">
+      <c r="E285"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A286" s="8"/>
+      <c r="B286" s="53"/>
+      <c r="C286" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="D286" s="83" t="s">
+      <c r="D286" s="73" t="s">
         <v>646</v>
       </c>
-      <c r="E286" s="101" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A287" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="B287" s="42" t="s">
+      <c r="B287" s="41" t="s">
         <v>856</v>
       </c>
-      <c r="C287" s="75" t="s">
+      <c r="C287" s="66" t="s">
         <v>757</v>
       </c>
-      <c r="D287" s="83" t="s">
+      <c r="D287" s="73" t="s">
         <v>758</v>
       </c>
-      <c r="E287" s="104" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A288" s="7" t="s">
+    </row>
+    <row r="288" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A288" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B288" s="34" t="s">
+      <c r="B288" s="33" t="s">
         <v>855</v>
       </c>
-      <c r="C288" s="72" t="s">
+      <c r="C288" s="63" t="s">
         <v>651</v>
       </c>
-      <c r="D288" s="80" t="s">
+      <c r="D288" s="70" t="s">
         <v>652</v>
       </c>
-      <c r="E288" s="104" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A289" s="7"/>
-      <c r="B289" s="44"/>
-      <c r="C289" s="73" t="s">
+    </row>
+    <row r="289" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A289" s="6"/>
+      <c r="B289" s="43"/>
+      <c r="C289" s="64" t="s">
         <v>666</v>
       </c>
-      <c r="D289" s="80" t="s">
+      <c r="D289" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="E289" s="101" t="s">
+    </row>
+    <row r="290" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A290" s="11"/>
+      <c r="B290" s="44"/>
+      <c r="C290" s="65" t="s">
+        <v>668</v>
+      </c>
+      <c r="D290" s="72" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A291" s="11"/>
+      <c r="B291" s="44"/>
+      <c r="C291" s="65" t="s">
+        <v>669</v>
+      </c>
+      <c r="D291" s="72" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A292" s="11" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="12"/>
-      <c r="B290" s="45"/>
-      <c r="C290" s="74" t="s">
-        <v>668</v>
-      </c>
-      <c r="D290" s="82" t="s">
-        <v>667</v>
-      </c>
-      <c r="E290" s="101" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="12"/>
-      <c r="B291" s="45"/>
-      <c r="C291" s="74" t="s">
-        <v>669</v>
-      </c>
-      <c r="D291" s="82" t="s">
-        <v>670</v>
-      </c>
-      <c r="E291" s="101" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="B292" s="45" t="s">
+      <c r="B292" s="44" t="s">
         <v>867</v>
       </c>
-      <c r="C292" s="74" t="s">
+      <c r="C292" s="65" t="s">
         <v>671</v>
       </c>
-      <c r="D292" s="82" t="s">
+      <c r="D292" s="72" t="s">
         <v>672</v>
       </c>
-      <c r="E292" s="101" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="12"/>
-      <c r="B293" s="45"/>
-      <c r="C293" s="74" t="s">
+    </row>
+    <row r="293" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A293" s="11"/>
+      <c r="B293" s="44"/>
+      <c r="C293" s="65" t="s">
         <v>675</v>
       </c>
-      <c r="D293" s="82" t="s">
+      <c r="D293" s="72" t="s">
         <v>676</v>
       </c>
-      <c r="E293" s="101" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="12"/>
-      <c r="B294" s="45"/>
-      <c r="C294" s="74" t="s">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A294" s="11"/>
+      <c r="B294" s="44"/>
+      <c r="C294" s="65" t="s">
         <v>677</v>
       </c>
-      <c r="D294" s="82" t="s">
+      <c r="D294" s="72" t="s">
         <v>678</v>
       </c>
-      <c r="E294" s="101" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="12"/>
-      <c r="B295" s="45"/>
-      <c r="C295" s="74" t="s">
+    </row>
+    <row r="295" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A295" s="11"/>
+      <c r="B295" s="44"/>
+      <c r="C295" s="65" t="s">
         <v>680</v>
       </c>
-      <c r="D295" s="82" t="s">
+      <c r="D295" s="72" t="s">
         <v>679</v>
       </c>
-      <c r="E295" s="101" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="9"/>
-      <c r="B296" s="57"/>
-      <c r="C296" s="70" t="s">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A296" s="8"/>
+      <c r="B296" s="53"/>
+      <c r="C296" s="61" t="s">
         <v>681</v>
       </c>
-      <c r="D296" s="83" t="s">
+      <c r="D296" s="73" t="s">
         <v>682</v>
       </c>
-      <c r="E296" s="101" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A297" s="13" t="s">
+    </row>
+    <row r="297" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A297" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="B297" s="37" t="s">
+      <c r="B297" s="36" t="s">
         <v>868</v>
       </c>
-      <c r="C297" s="75" t="s">
+      <c r="C297" s="66" t="s">
         <v>686</v>
       </c>
-      <c r="D297" s="78" t="s">
+      <c r="D297" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="E297" s="103" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A298" s="28" t="s">
+      <c r="E297"/>
+    </row>
+    <row r="298" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A298" s="27" t="s">
         <v>688</v>
       </c>
-      <c r="B298" s="54" t="s">
+      <c r="B298" s="50" t="s">
         <v>869</v>
       </c>
-      <c r="C298" s="72" t="s">
+      <c r="C298" s="63" t="s">
         <v>689</v>
       </c>
-      <c r="D298" s="84" t="s">
+      <c r="D298" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="E298" s="103" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="7" t="s">
+      <c r="E298"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A299" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B299" s="44" t="s">
+      <c r="B299" s="43" t="s">
         <v>882</v>
       </c>
-      <c r="C299" s="73" t="s">
+      <c r="C299" s="64" t="s">
         <v>692</v>
       </c>
-      <c r="D299" s="80" t="s">
+      <c r="D299" s="70" t="s">
         <v>693</v>
       </c>
-      <c r="E299" s="101" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
-      <c r="B300" s="57"/>
-      <c r="C300" s="70" t="s">
+    </row>
+    <row r="300" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A300" s="8"/>
+      <c r="B300" s="53"/>
+      <c r="C300" s="61" t="s">
         <v>694</v>
       </c>
-      <c r="D300" s="83" t="s">
+      <c r="D300" s="73" t="s">
         <v>695</v>
       </c>
-      <c r="E300" s="101" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="8" t="s">
+    </row>
+    <row r="301" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A301" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="B301" s="36" t="s">
+      <c r="B301" s="35" t="s">
         <v>883</v>
       </c>
-      <c r="C301" s="76" t="s">
+      <c r="C301" s="67" t="s">
         <v>697</v>
       </c>
-      <c r="D301" s="86" t="s">
+      <c r="D301" s="75" t="s">
         <v>698</v>
       </c>
-      <c r="E301" s="103" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="19"/>
-      <c r="B302" s="44"/>
-      <c r="C302" s="73" t="s">
+      <c r="E301"/>
+    </row>
+    <row r="302" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A302" s="18"/>
+      <c r="B302" s="43"/>
+      <c r="C302" s="64" t="s">
         <v>702</v>
       </c>
-      <c r="D302" s="80" t="s">
+      <c r="D302" s="70" t="s">
         <v>703</v>
       </c>
-      <c r="E302" s="101" t="s">
+    </row>
+    <row r="303" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A303" s="28"/>
+      <c r="B303" s="59"/>
+      <c r="C303" s="65" t="s">
+        <v>710</v>
+      </c>
+      <c r="D303" s="72" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A304" s="9" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="29"/>
-      <c r="B303" s="68"/>
-      <c r="C303" s="74" t="s">
-        <v>710</v>
-      </c>
-      <c r="D303" s="82" t="s">
-        <v>711</v>
-      </c>
-      <c r="E303" s="101" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A304" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="B304" s="45" t="s">
+      <c r="B304" s="44" t="s">
         <v>884</v>
       </c>
-      <c r="C304" s="74" t="s">
+      <c r="C304" s="65" t="s">
         <v>704</v>
       </c>
-      <c r="D304" s="82" t="s">
+      <c r="D304" s="72" t="s">
         <v>705</v>
       </c>
-      <c r="E304" s="101" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A305" s="10"/>
-      <c r="B305" s="45"/>
-      <c r="C305" s="74" t="s">
+    </row>
+    <row r="305" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A305" s="9"/>
+      <c r="B305" s="44"/>
+      <c r="C305" s="65" t="s">
         <v>706</v>
       </c>
-      <c r="D305" s="82" t="s">
+      <c r="D305" s="72" t="s">
         <v>707</v>
       </c>
-      <c r="E305" s="101" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A306" s="10"/>
-      <c r="B306" s="45"/>
-      <c r="C306" s="74" t="s">
+    </row>
+    <row r="306" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A306" s="9"/>
+      <c r="B306" s="44"/>
+      <c r="C306" s="65" t="s">
         <v>709</v>
       </c>
-      <c r="D306" s="82" t="s">
+      <c r="D306" s="72" t="s">
         <v>708</v>
       </c>
-      <c r="E306" s="101" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="30"/>
-      <c r="B307" s="57"/>
-      <c r="C307" s="70" t="s">
+    </row>
+    <row r="307" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A307" s="29"/>
+      <c r="B307" s="53"/>
+      <c r="C307" s="61" t="s">
         <v>699</v>
       </c>
-      <c r="D307" s="83" t="s">
+      <c r="D307" s="73" t="s">
         <v>700</v>
       </c>
-      <c r="E307" s="101" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A308" s="31" t="s">
+    </row>
+    <row r="308" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A308" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="B308" s="52" t="s">
+      <c r="B308" s="48" t="s">
         <v>931</v>
       </c>
-      <c r="C308" s="75" t="s">
+      <c r="C308" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="D308" s="78" t="s">
+      <c r="D308" s="68" t="s">
         <v>400</v>
       </c>
-      <c r="E308" s="113" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A309" s="27" t="s">
+      <c r="E308"/>
+    </row>
+    <row r="309" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A309" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B309" s="52" t="s">
+      <c r="B309" s="48" t="s">
         <v>932</v>
       </c>
-      <c r="C309" s="76" t="s">
+      <c r="C309" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="D309" s="86" t="s">
+      <c r="D309" s="75" t="s">
         <v>403</v>
       </c>
-      <c r="E309" s="103" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A310" s="15" t="s">
+      <c r="E309"/>
+    </row>
+    <row r="310" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A310" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="B310" s="38" t="s">
+      <c r="B310" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="C310" s="71" t="s">
+      <c r="C310" s="62" t="s">
         <v>713</v>
       </c>
-      <c r="D310" s="79" t="s">
+      <c r="D310" s="69" t="s">
         <v>714</v>
       </c>
-      <c r="E310" s="103" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="20" t="s">
+      <c r="E310"/>
+    </row>
+    <row r="311" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A311" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B311" s="47" t="s">
+      <c r="B311" s="46" t="s">
         <v>885</v>
       </c>
-      <c r="C311" s="71" t="s">
+      <c r="C311" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="D311" s="81" t="s">
+      <c r="D311" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="E311" s="104" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A312" s="15" t="s">
+    </row>
+    <row r="312" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A312" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="B312" s="38" t="s">
+      <c r="B312" s="37" t="s">
         <v>881</v>
       </c>
-      <c r="C312" s="71" t="s">
+      <c r="C312" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="D312" s="79" t="s">
+      <c r="D312" s="69" t="s">
         <v>717</v>
       </c>
-      <c r="E312" s="103" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A313" s="20" t="s">
+      <c r="E312"/>
+    </row>
+    <row r="313" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A313" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="B313" s="47" t="s">
+      <c r="B313" s="46" t="s">
         <v>877</v>
       </c>
-      <c r="C313" s="71" t="s">
+      <c r="C313" s="62" t="s">
         <v>636</v>
       </c>
-      <c r="D313" s="81" t="s">
+      <c r="D313" s="71" t="s">
         <v>637</v>
       </c>
-      <c r="E313" s="104" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A314" s="15" t="s">
+    </row>
+    <row r="314" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A314" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="B314" s="38" t="s">
+      <c r="B314" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="C314" s="71" t="s">
+      <c r="C314" s="62" t="s">
         <v>727</v>
       </c>
-      <c r="D314" s="79" t="s">
+      <c r="D314" s="69" t="s">
         <v>728</v>
       </c>
-      <c r="E314" s="103" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="15" t="s">
+      <c r="E314"/>
+    </row>
+    <row r="315" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A315" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="B315" s="38" t="s">
+      <c r="B315" s="37" t="s">
         <v>879</v>
       </c>
-      <c r="C315" s="71" t="s">
+      <c r="C315" s="62" t="s">
         <v>731</v>
       </c>
-      <c r="D315" s="79" t="s">
+      <c r="D315" s="69" t="s">
         <v>730</v>
       </c>
-      <c r="E315" s="103" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A316" s="20" t="s">
+      <c r="E315"/>
+    </row>
+    <row r="316" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A316" s="19" t="s">
         <v>734</v>
       </c>
-      <c r="B316" s="47" t="s">
+      <c r="B316" s="46" t="s">
         <v>876</v>
       </c>
-      <c r="C316" s="71" t="s">
+      <c r="C316" s="62" t="s">
         <v>735</v>
       </c>
-      <c r="D316" s="81" t="s">
+      <c r="D316" s="71" t="s">
         <v>736</v>
       </c>
-      <c r="E316" s="104" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="7" t="s">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A317" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="B317" s="34" t="s">
+      <c r="B317" s="33" t="s">
         <v>878</v>
       </c>
-      <c r="C317" s="72" t="s">
+      <c r="C317" s="63" t="s">
         <v>739</v>
       </c>
-      <c r="D317" s="80" t="s">
+      <c r="D317" s="70" t="s">
         <v>738</v>
       </c>
-      <c r="E317" s="104" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="7"/>
-      <c r="B318" s="44"/>
-      <c r="C318" s="73" t="s">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A318" s="6"/>
+      <c r="B318" s="43"/>
+      <c r="C318" s="64" t="s">
         <v>683</v>
       </c>
-      <c r="D318" s="80" t="s">
+      <c r="D318" s="70" t="s">
         <v>684</v>
       </c>
-      <c r="E318" s="101" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="12"/>
-      <c r="B319" s="45"/>
-      <c r="C319" s="74" t="s">
+    </row>
+    <row r="319" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A319" s="11"/>
+      <c r="B319" s="44"/>
+      <c r="C319" s="65" t="s">
         <v>742</v>
       </c>
-      <c r="D319" s="82" t="s">
+      <c r="D319" s="72" t="s">
         <v>743</v>
       </c>
-      <c r="E319" s="101" t="s">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A320" s="11"/>
+      <c r="B320" s="44"/>
+      <c r="C320" s="65" t="s">
+        <v>746</v>
+      </c>
+      <c r="D320" s="72" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A321" s="11" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="12"/>
-      <c r="B320" s="45"/>
-      <c r="C320" s="74" t="s">
-        <v>746</v>
-      </c>
-      <c r="D320" s="82" t="s">
-        <v>744</v>
-      </c>
-      <c r="E320" s="101" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="B321" s="45" t="s">
+      <c r="B321" s="44" t="s">
         <v>875</v>
       </c>
-      <c r="C321" s="74" t="s">
+      <c r="C321" s="65" t="s">
         <v>745</v>
       </c>
-      <c r="D321" s="82" t="s">
+      <c r="D321" s="72" t="s">
         <v>747</v>
       </c>
-      <c r="E321" s="101" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A322" s="12"/>
-      <c r="B322" s="45"/>
-      <c r="C322" s="74" t="s">
+    </row>
+    <row r="322" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A322" s="11"/>
+      <c r="B322" s="44"/>
+      <c r="C322" s="65" t="s">
         <v>748</v>
       </c>
-      <c r="D322" s="82" t="s">
+      <c r="D322" s="72" t="s">
         <v>749</v>
       </c>
-      <c r="E322" s="101" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="12"/>
-      <c r="B323" s="45"/>
-      <c r="C323" s="74" t="s">
+    </row>
+    <row r="323" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A323" s="11"/>
+      <c r="B323" s="44"/>
+      <c r="C323" s="65" t="s">
         <v>750</v>
       </c>
-      <c r="D323" s="82" t="s">
+      <c r="D323" s="72" t="s">
         <v>751</v>
       </c>
-      <c r="E323" s="101" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A324" s="12"/>
-      <c r="B324" s="45"/>
-      <c r="C324" s="74" t="s">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A324" s="11"/>
+      <c r="B324" s="44"/>
+      <c r="C324" s="65" t="s">
         <v>752</v>
       </c>
-      <c r="D324" s="82" t="s">
+      <c r="D324" s="72" t="s">
         <v>753</v>
       </c>
-      <c r="E324" s="101" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="12"/>
-      <c r="B325" s="45"/>
-      <c r="C325" s="74" t="s">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A325" s="11"/>
+      <c r="B325" s="44"/>
+      <c r="C325" s="65" t="s">
         <v>755</v>
       </c>
-      <c r="D325" s="82" t="s">
+      <c r="D325" s="72" t="s">
         <v>754</v>
       </c>
-      <c r="E325" s="101" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
-      <c r="B326" s="57"/>
-      <c r="C326" s="70" t="s">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A326" s="8"/>
+      <c r="B326" s="53"/>
+      <c r="C326" s="61" t="s">
         <v>659</v>
       </c>
-      <c r="D326" s="83" t="s">
+      <c r="D326" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="E326" s="101" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="9" t="s">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A327" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="B327" s="42" t="s">
+      <c r="B327" s="41" t="s">
         <v>873</v>
       </c>
-      <c r="C327" s="75" t="s">
+      <c r="C327" s="66" t="s">
         <v>761</v>
       </c>
-      <c r="D327" s="83" t="s">
+      <c r="D327" s="73" t="s">
         <v>760</v>
       </c>
-      <c r="E327" s="104" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A328" s="15" t="s">
+    </row>
+    <row r="328" spans="1:5" s="2" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A328" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="B328" s="38" t="s">
+      <c r="B328" s="37" t="s">
         <v>874</v>
       </c>
-      <c r="C328" s="71" t="s">
+      <c r="C328" s="62" t="s">
         <v>763</v>
       </c>
-      <c r="D328" s="79" t="s">
+      <c r="D328" s="69" t="s">
         <v>764</v>
       </c>
-      <c r="E328" s="103" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="16" t="s">
+      <c r="E328"/>
+    </row>
+    <row r="329" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A329" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B329" s="36" t="s">
+      <c r="B329" s="35" t="s">
         <v>928</v>
       </c>
-      <c r="C329" s="72" t="s">
+      <c r="C329" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D329" s="84" t="s">
+      <c r="D329" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E329" s="103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="16" t="s">
+      <c r="E329"/>
+    </row>
+    <row r="330" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A330" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="B330" s="44" t="s">
+      <c r="B330" s="43" t="s">
         <v>870</v>
       </c>
-      <c r="C330" s="72" t="s">
+      <c r="C330" s="63" t="s">
         <v>565</v>
       </c>
-      <c r="D330" s="88" t="s">
+      <c r="D330" s="77" t="s">
         <v>566</v>
       </c>
-      <c r="E330" s="102" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A331" s="9"/>
-      <c r="B331" s="57"/>
-      <c r="C331" s="75" t="s">
+      <c r="E330"/>
+    </row>
+    <row r="331" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A331" s="8"/>
+      <c r="B331" s="53"/>
+      <c r="C331" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="D331" s="89" t="s">
+      <c r="D331" s="78" t="s">
         <v>572</v>
       </c>
-      <c r="E331" s="101" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A332" s="15" t="s">
+    </row>
+    <row r="332" spans="1:5" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A332" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="B332" s="38" t="s">
+      <c r="B332" s="37" t="s">
         <v>872</v>
       </c>
-      <c r="C332" s="75" t="s">
+      <c r="C332" s="66" t="s">
         <v>871</v>
       </c>
-      <c r="D332" s="78" t="s">
+      <c r="D332" s="68" t="s">
         <v>568</v>
       </c>
-      <c r="E332" s="103" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="32"/>
-      <c r="B333" s="97"/>
-      <c r="C333" s="98"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B334" s="95"/>
-      <c r="C334" s="96"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B335" s="95"/>
-      <c r="C335" s="96"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B336" s="95"/>
-      <c r="C336" s="96"/>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B337" s="95"/>
-      <c r="C337" s="96"/>
-    </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B338" s="95"/>
-      <c r="C338" s="96"/>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B339" s="95"/>
-      <c r="C339" s="96"/>
-    </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B340" s="95"/>
-      <c r="C340" s="96"/>
-    </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B341" s="95"/>
-      <c r="C341" s="96"/>
-    </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B342" s="95"/>
-      <c r="C342" s="96"/>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B343" s="95"/>
-      <c r="C343" s="96"/>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B344" s="95"/>
-      <c r="C344" s="96"/>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B345" s="95"/>
-      <c r="C345" s="96"/>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B346" s="95"/>
-      <c r="C346" s="96"/>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B347" s="95"/>
-      <c r="C347" s="96"/>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B348" s="95"/>
-      <c r="C348" s="96"/>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B349" s="95"/>
-      <c r="C349" s="96"/>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B350" s="95"/>
-      <c r="C350" s="96"/>
-    </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B351" s="95"/>
-      <c r="C351" s="96"/>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B352" s="95"/>
-      <c r="C352" s="96"/>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="95"/>
-      <c r="C353" s="96"/>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="95"/>
-      <c r="C354" s="96"/>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B355" s="95"/>
-      <c r="C355" s="96"/>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B356" s="95"/>
-      <c r="C356" s="96"/>
-    </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B357" s="95"/>
-      <c r="C357" s="96"/>
-    </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B358" s="95"/>
-      <c r="C358" s="96"/>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B359" s="95"/>
-      <c r="C359" s="96"/>
-    </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B360" s="95"/>
-      <c r="C360" s="96"/>
-    </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B361" s="95"/>
-      <c r="C361" s="96"/>
-    </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B362" s="95"/>
-      <c r="C362" s="96"/>
-    </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B363" s="95"/>
-      <c r="C363" s="96"/>
-    </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B364" s="95"/>
-      <c r="C364" s="96"/>
-    </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B365" s="95"/>
-      <c r="C365" s="96"/>
-    </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B366" s="95"/>
-      <c r="C366" s="96"/>
-    </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B367" s="95"/>
-      <c r="C367" s="96"/>
-    </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B368" s="95"/>
-      <c r="C368" s="96"/>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B369" s="95"/>
-      <c r="C369" s="96"/>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B370" s="95"/>
-      <c r="C370" s="96"/>
-    </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B371" s="95"/>
-      <c r="C371" s="96"/>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B372" s="95"/>
-      <c r="C372" s="96"/>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B373" s="95"/>
-      <c r="C373" s="96"/>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B374" s="95"/>
-      <c r="C374" s="96"/>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B375" s="95"/>
-      <c r="C375" s="96"/>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B376" s="95"/>
-      <c r="C376" s="96"/>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B377" s="95"/>
-      <c r="C377" s="96"/>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B378" s="95"/>
-      <c r="C378" s="96"/>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B379" s="95"/>
-      <c r="C379" s="96"/>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B380" s="95"/>
-      <c r="C380" s="96"/>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B381" s="95"/>
-      <c r="C381" s="96"/>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B382" s="95"/>
-      <c r="C382" s="96"/>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B383" s="95"/>
-      <c r="C383" s="96"/>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B384" s="95"/>
-      <c r="C384" s="96"/>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B385" s="95"/>
-      <c r="C385" s="96"/>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B386" s="95"/>
-      <c r="C386" s="96"/>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B387" s="95"/>
-      <c r="C387" s="96"/>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B388" s="95"/>
-      <c r="C388" s="96"/>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B389" s="95"/>
-      <c r="C389" s="96"/>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B390" s="95"/>
-      <c r="C390" s="96"/>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B391" s="95"/>
-      <c r="C391" s="96"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B392" s="95"/>
-      <c r="C392" s="96"/>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B393" s="95"/>
-      <c r="C393" s="96"/>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B394" s="95"/>
-      <c r="C394" s="96"/>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B395" s="95"/>
-      <c r="C395" s="96"/>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B396" s="95"/>
-      <c r="C396" s="96"/>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B397" s="95"/>
-      <c r="C397" s="96"/>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B398" s="95"/>
-      <c r="C398" s="96"/>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B399" s="95"/>
-      <c r="C399" s="96"/>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B400" s="95"/>
-      <c r="C400" s="96"/>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B401" s="95"/>
-      <c r="C401" s="96"/>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B402" s="95"/>
-      <c r="C402" s="96"/>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B403" s="95"/>
-      <c r="C403" s="96"/>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B404" s="95"/>
-      <c r="C404" s="96"/>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B405" s="95"/>
-      <c r="C405" s="96"/>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B406" s="95"/>
-      <c r="C406" s="96"/>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B407" s="95"/>
-      <c r="C407" s="96"/>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B408" s="95"/>
-      <c r="C408" s="96"/>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B409" s="95"/>
-      <c r="C409" s="96"/>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B410" s="95"/>
-      <c r="C410" s="96"/>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B411" s="95"/>
-      <c r="C411" s="96"/>
-    </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B412" s="95"/>
-      <c r="C412" s="96"/>
-    </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B413" s="95"/>
-      <c r="C413" s="96"/>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B414" s="95"/>
-      <c r="C414" s="96"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B415" s="95"/>
-      <c r="C415" s="96"/>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B416" s="95"/>
-      <c r="C416" s="96"/>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B417" s="95"/>
-      <c r="C417" s="96"/>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B418" s="95"/>
-      <c r="C418" s="96"/>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B419" s="95"/>
-      <c r="C419" s="96"/>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B420" s="95"/>
-      <c r="C420" s="96"/>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B421" s="95"/>
-      <c r="C421" s="96"/>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B422" s="95"/>
-      <c r="C422" s="96"/>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B423" s="95"/>
-      <c r="C423" s="96"/>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B424" s="95"/>
-      <c r="C424" s="96"/>
-    </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B425" s="95"/>
-      <c r="C425" s="96"/>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B426" s="95"/>
-      <c r="C426" s="96"/>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B427" s="95"/>
-      <c r="C427" s="96"/>
-    </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B428" s="95"/>
-      <c r="C428" s="96"/>
-    </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B429" s="95"/>
-      <c r="C429" s="96"/>
-    </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B430" s="95"/>
-      <c r="C430" s="96"/>
-    </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B431" s="95"/>
-      <c r="C431" s="96"/>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B432" s="95"/>
-      <c r="C432" s="96"/>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B433" s="95"/>
-      <c r="C433" s="96"/>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B434" s="95"/>
-      <c r="C434" s="96"/>
-    </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B435" s="95"/>
-      <c r="C435" s="96"/>
-    </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B436" s="95"/>
-      <c r="C436" s="96"/>
-    </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B437" s="95"/>
-      <c r="C437" s="96"/>
-    </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B438" s="95"/>
-      <c r="C438" s="96"/>
-    </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B439" s="95"/>
-      <c r="C439" s="96"/>
-    </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B440" s="95"/>
-      <c r="C440" s="96"/>
-    </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B441" s="95"/>
-      <c r="C441" s="96"/>
-    </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B442" s="95"/>
-      <c r="C442" s="96"/>
-    </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B443" s="95"/>
-      <c r="C443" s="96"/>
-    </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B444" s="95"/>
-      <c r="C444" s="96"/>
-    </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B445" s="95"/>
-      <c r="C445" s="96"/>
-    </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B446" s="95"/>
-      <c r="C446" s="96"/>
-    </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B447" s="95"/>
-      <c r="C447" s="96"/>
-    </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B448" s="95"/>
-      <c r="C448" s="96"/>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B449" s="95"/>
-      <c r="C449" s="96"/>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B450" s="95"/>
-      <c r="C450" s="96"/>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B451" s="95"/>
-      <c r="C451" s="96"/>
+      <c r="E332"/>
+    </row>
+    <row r="333" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A333" s="31"/>
+      <c r="B333" s="85"/>
+      <c r="C333" s="86"/>
+      <c r="E333"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B334" s="83"/>
+      <c r="C334" s="84"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B335" s="83"/>
+      <c r="C335" s="84"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B336" s="83"/>
+      <c r="C336" s="84"/>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B337" s="83"/>
+      <c r="C337" s="84"/>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B338" s="83"/>
+      <c r="C338" s="84"/>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B339" s="83"/>
+      <c r="C339" s="84"/>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B340" s="83"/>
+      <c r="C340" s="84"/>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B341" s="83"/>
+      <c r="C341" s="84"/>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B342" s="83"/>
+      <c r="C342" s="84"/>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B343" s="83"/>
+      <c r="C343" s="84"/>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B344" s="83"/>
+      <c r="C344" s="84"/>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B345" s="83"/>
+      <c r="C345" s="84"/>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B346" s="83"/>
+      <c r="C346" s="84"/>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B347" s="83"/>
+      <c r="C347" s="84"/>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B348" s="83"/>
+      <c r="C348" s="84"/>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B349" s="83"/>
+      <c r="C349" s="84"/>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B350" s="83"/>
+      <c r="C350" s="84"/>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B351" s="83"/>
+      <c r="C351" s="84"/>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B352" s="83"/>
+      <c r="C352" s="84"/>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B353" s="83"/>
+      <c r="C353" s="84"/>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B354" s="83"/>
+      <c r="C354" s="84"/>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B355" s="83"/>
+      <c r="C355" s="84"/>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B356" s="83"/>
+      <c r="C356" s="84"/>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B357" s="83"/>
+      <c r="C357" s="84"/>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B358" s="83"/>
+      <c r="C358" s="84"/>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B359" s="83"/>
+      <c r="C359" s="84"/>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B360" s="83"/>
+      <c r="C360" s="84"/>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B361" s="83"/>
+      <c r="C361" s="84"/>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B362" s="83"/>
+      <c r="C362" s="84"/>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B363" s="83"/>
+      <c r="C363" s="84"/>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B364" s="83"/>
+      <c r="C364" s="84"/>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B365" s="83"/>
+      <c r="C365" s="84"/>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B366" s="83"/>
+      <c r="C366" s="84"/>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B367" s="83"/>
+      <c r="C367" s="84"/>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B368" s="83"/>
+      <c r="C368" s="84"/>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B369" s="83"/>
+      <c r="C369" s="84"/>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B370" s="83"/>
+      <c r="C370" s="84"/>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B371" s="83"/>
+      <c r="C371" s="84"/>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B372" s="83"/>
+      <c r="C372" s="84"/>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B373" s="83"/>
+      <c r="C373" s="84"/>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B374" s="83"/>
+      <c r="C374" s="84"/>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B375" s="83"/>
+      <c r="C375" s="84"/>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B376" s="83"/>
+      <c r="C376" s="84"/>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B377" s="83"/>
+      <c r="C377" s="84"/>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B378" s="83"/>
+      <c r="C378" s="84"/>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B379" s="83"/>
+      <c r="C379" s="84"/>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B380" s="83"/>
+      <c r="C380" s="84"/>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B381" s="83"/>
+      <c r="C381" s="84"/>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B382" s="83"/>
+      <c r="C382" s="84"/>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B383" s="83"/>
+      <c r="C383" s="84"/>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B384" s="83"/>
+      <c r="C384" s="84"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B385" s="83"/>
+      <c r="C385" s="84"/>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B386" s="83"/>
+      <c r="C386" s="84"/>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B387" s="83"/>
+      <c r="C387" s="84"/>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B388" s="83"/>
+      <c r="C388" s="84"/>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B389" s="83"/>
+      <c r="C389" s="84"/>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B390" s="83"/>
+      <c r="C390" s="84"/>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B391" s="83"/>
+      <c r="C391" s="84"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B392" s="83"/>
+      <c r="C392" s="84"/>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B393" s="83"/>
+      <c r="C393" s="84"/>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B394" s="83"/>
+      <c r="C394" s="84"/>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B395" s="83"/>
+      <c r="C395" s="84"/>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B396" s="83"/>
+      <c r="C396" s="84"/>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B397" s="83"/>
+      <c r="C397" s="84"/>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B398" s="83"/>
+      <c r="C398" s="84"/>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B399" s="83"/>
+      <c r="C399" s="84"/>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B400" s="83"/>
+      <c r="C400" s="84"/>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B401" s="83"/>
+      <c r="C401" s="84"/>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B402" s="83"/>
+      <c r="C402" s="84"/>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B403" s="83"/>
+      <c r="C403" s="84"/>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B404" s="83"/>
+      <c r="C404" s="84"/>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B405" s="83"/>
+      <c r="C405" s="84"/>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B406" s="83"/>
+      <c r="C406" s="84"/>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B407" s="83"/>
+      <c r="C407" s="84"/>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B408" s="83"/>
+      <c r="C408" s="84"/>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B409" s="83"/>
+      <c r="C409" s="84"/>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B410" s="83"/>
+      <c r="C410" s="84"/>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B411" s="83"/>
+      <c r="C411" s="84"/>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B412" s="83"/>
+      <c r="C412" s="84"/>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B413" s="83"/>
+      <c r="C413" s="84"/>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B414" s="83"/>
+      <c r="C414" s="84"/>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B415" s="83"/>
+      <c r="C415" s="84"/>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B416" s="83"/>
+      <c r="C416" s="84"/>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B417" s="83"/>
+      <c r="C417" s="84"/>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B418" s="83"/>
+      <c r="C418" s="84"/>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B419" s="83"/>
+      <c r="C419" s="84"/>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B420" s="83"/>
+      <c r="C420" s="84"/>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B421" s="83"/>
+      <c r="C421" s="84"/>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B422" s="83"/>
+      <c r="C422" s="84"/>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B423" s="83"/>
+      <c r="C423" s="84"/>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B424" s="83"/>
+      <c r="C424" s="84"/>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B425" s="83"/>
+      <c r="C425" s="84"/>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B426" s="83"/>
+      <c r="C426" s="84"/>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B427" s="83"/>
+      <c r="C427" s="84"/>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B428" s="83"/>
+      <c r="C428" s="84"/>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B429" s="83"/>
+      <c r="C429" s="84"/>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B430" s="83"/>
+      <c r="C430" s="84"/>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B431" s="83"/>
+      <c r="C431" s="84"/>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B432" s="83"/>
+      <c r="C432" s="84"/>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B433" s="83"/>
+      <c r="C433" s="84"/>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B434" s="83"/>
+      <c r="C434" s="84"/>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B435" s="83"/>
+      <c r="C435" s="84"/>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B436" s="83"/>
+      <c r="C436" s="84"/>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B437" s="83"/>
+      <c r="C437" s="84"/>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B438" s="83"/>
+      <c r="C438" s="84"/>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B439" s="83"/>
+      <c r="C439" s="84"/>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B440" s="83"/>
+      <c r="C440" s="84"/>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B441" s="83"/>
+      <c r="C441" s="84"/>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B442" s="83"/>
+      <c r="C442" s="84"/>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B443" s="83"/>
+      <c r="C443" s="84"/>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B444" s="83"/>
+      <c r="C444" s="84"/>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B445" s="83"/>
+      <c r="C445" s="84"/>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B446" s="83"/>
+      <c r="C446" s="84"/>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B447" s="83"/>
+      <c r="C447" s="84"/>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B448" s="83"/>
+      <c r="C448" s="84"/>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B449" s="83"/>
+      <c r="C449" s="84"/>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B450" s="83"/>
+      <c r="C450" s="84"/>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B451" s="83"/>
+      <c r="C451" s="84"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D337">
